--- a/Agricola Stats.xlsx.xlsx
+++ b/Agricola Stats.xlsx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13058" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13058"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -731,11 +731,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S636" sqref="A1:S636"/>
+      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -806,11 +806,11 @@
       <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -876,7 +876,7 @@
         <f t="shared" ref="T2:T103" si="1">SUM(D2:R2)</f>
         <v>20</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <f>T2-S2</f>
         <v>0</v>
       </c>
@@ -944,7 +944,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <f>T3-S3</f>
         <v>0</v>
       </c>
@@ -1012,7 +1012,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <f>T4-S4</f>
         <v>0</v>
       </c>
@@ -1080,7 +1080,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <f>T5-S5</f>
         <v>0</v>
       </c>
@@ -1148,7 +1148,7 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <f>T6-S6</f>
         <v>0</v>
       </c>
@@ -1216,7 +1216,7 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <f>T7-S7</f>
         <v>0</v>
       </c>
@@ -1284,7 +1284,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <f>T8-S8</f>
         <v>0</v>
       </c>
@@ -1352,7 +1352,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <f>T9-S9</f>
         <v>0</v>
       </c>
@@ -1420,7 +1420,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <f>T10-S10</f>
         <v>0</v>
       </c>
@@ -1488,7 +1488,7 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <f>T11-S11</f>
         <v>0</v>
       </c>
@@ -1556,7 +1556,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <f>T12-S12</f>
         <v>0</v>
       </c>
@@ -1624,7 +1624,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <f>T13-S13</f>
         <v>0</v>
       </c>
@@ -1692,7 +1692,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <f>T14-S14</f>
         <v>0</v>
       </c>
@@ -1760,7 +1760,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <f>T15-S15</f>
         <v>0</v>
       </c>
@@ -1828,12 +1828,12 @@
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <f>T16-S16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -1896,12 +1896,12 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <f>T17-S17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -1964,12 +1964,12 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <f>T18-S18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -2032,12 +2032,12 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <f>T19-S19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -2100,12 +2100,12 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <f>T20-S20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -2168,12 +2168,12 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <f>T21-S21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -2236,12 +2236,12 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <f>T22-S22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -2304,12 +2304,12 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <f>T23-S23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>6</v>
       </c>
@@ -2372,12 +2372,12 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <f>T24-S24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -2440,12 +2440,12 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <f>T25-S25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:22">
       <c r="A26" s="1">
         <v>7</v>
       </c>
@@ -2508,12 +2508,12 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <f>T26-S26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:22">
       <c r="A27" s="1">
         <v>7</v>
       </c>
@@ -2576,12 +2576,12 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <f>T27-S27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:22">
       <c r="A28" s="1">
         <v>7</v>
       </c>
@@ -2644,12 +2644,12 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <f>T28-S28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:22">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -2712,12 +2712,12 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <f>T29-S29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:22">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -2780,12 +2780,12 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <f>T30-S30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:22">
       <c r="A31" s="1">
         <v>8</v>
       </c>
@@ -2848,12 +2848,12 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <f>T31-S31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:22">
       <c r="A32" s="1">
         <v>9</v>
       </c>
@@ -2916,12 +2916,12 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <f>T32-S32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:22">
       <c r="A33" s="1">
         <v>9</v>
       </c>
@@ -2984,12 +2984,12 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <f>T33-S33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:22">
       <c r="A34" s="1">
         <v>9</v>
       </c>
@@ -3052,12 +3052,12 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <f>T34-S34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:22">
       <c r="A35" s="1">
         <v>10</v>
       </c>
@@ -3120,12 +3120,12 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <f>T35-S35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:22">
       <c r="A36" s="1">
         <v>10</v>
       </c>
@@ -3188,12 +3188,12 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <f>T36-S36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:22">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -3256,12 +3256,12 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <f>T37-S37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:22">
       <c r="A38" s="1">
         <v>10</v>
       </c>
@@ -3324,12 +3324,12 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <f>T38-S38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:22">
       <c r="A39" s="1">
         <v>11</v>
       </c>
@@ -3392,12 +3392,12 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <f>T39-S39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:22">
       <c r="A40" s="1">
         <v>11</v>
       </c>
@@ -3460,12 +3460,12 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <f>T40-S40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:22">
       <c r="A41" s="1">
         <v>11</v>
       </c>
@@ -3528,12 +3528,12 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <f>T41-S41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:22">
       <c r="A42" s="1">
         <v>11</v>
       </c>
@@ -3596,12 +3596,12 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <f>T42-S42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:22">
       <c r="A43" s="1">
         <v>12</v>
       </c>
@@ -3664,12 +3664,12 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <f>T43-S43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:22">
       <c r="A44" s="1">
         <v>12</v>
       </c>
@@ -3732,12 +3732,12 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <f>T44-S44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:22">
       <c r="A45" s="1">
         <v>12</v>
       </c>
@@ -3800,12 +3800,12 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <f>T45-S45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:22">
       <c r="A46" s="1">
         <v>12</v>
       </c>
@@ -3868,12 +3868,12 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <f>T46-S46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:22">
       <c r="A47" s="1">
         <v>13</v>
       </c>
@@ -3936,12 +3936,12 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <f>T47-S47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:22">
       <c r="A48" s="1">
         <v>13</v>
       </c>
@@ -4004,12 +4004,12 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <f>T48-S48</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:22">
       <c r="A49" s="1">
         <v>13</v>
       </c>
@@ -4072,12 +4072,12 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <f>T49-S49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:22">
       <c r="A50" s="1">
         <v>13</v>
       </c>
@@ -4140,12 +4140,12 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <f>T50-S50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:22">
       <c r="A51" s="1">
         <v>13</v>
       </c>
@@ -4208,12 +4208,12 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <f>T51-S51</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:22">
       <c r="A52" s="1">
         <v>14</v>
       </c>
@@ -4276,12 +4276,12 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <f>T52-S52</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:22">
       <c r="A53" s="1">
         <v>14</v>
       </c>
@@ -4344,12 +4344,12 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <f>T53-S53</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:22">
       <c r="A54" s="1">
         <v>14</v>
       </c>
@@ -4412,12 +4412,12 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <f>T54-S54</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:22">
       <c r="A55" s="1">
         <v>14</v>
       </c>
@@ -4480,12 +4480,12 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <f>T55-S55</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:22">
       <c r="A56" s="1">
         <v>15</v>
       </c>
@@ -4548,12 +4548,12 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <f>T56-S56</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:22">
       <c r="A57" s="1">
         <v>15</v>
       </c>
@@ -4616,12 +4616,12 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <f>T57-S57</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:22">
       <c r="A58" s="1">
         <v>15</v>
       </c>
@@ -4684,12 +4684,12 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <f>T58-S58</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:22">
       <c r="A59" s="1">
         <v>15</v>
       </c>
@@ -4752,12 +4752,12 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <f>T59-S59</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:22">
       <c r="A60" s="1">
         <v>15</v>
       </c>
@@ -4820,12 +4820,12 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <f>T60-S60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:22">
       <c r="A61" s="1">
         <v>16</v>
       </c>
@@ -4888,12 +4888,12 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <f>T61-S61</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:22">
       <c r="A62" s="1">
         <v>16</v>
       </c>
@@ -4956,12 +4956,12 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <f>T62-S62</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:22">
       <c r="A63" s="1">
         <v>16</v>
       </c>
@@ -5024,12 +5024,12 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <f>T63-S63</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:22">
       <c r="A64" s="1">
         <v>16</v>
       </c>
@@ -5092,12 +5092,12 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <f>T64-S64</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:22">
       <c r="A65" s="1">
         <v>16</v>
       </c>
@@ -5160,12 +5160,12 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <f>T65-S65</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:22">
       <c r="A66" s="1">
         <v>17</v>
       </c>
@@ -5228,12 +5228,12 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <f>T66-S66</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:22">
       <c r="A67" s="1">
         <v>17</v>
       </c>
@@ -5296,12 +5296,12 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <f>T67-S67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:22">
       <c r="A68" s="1">
         <v>17</v>
       </c>
@@ -5364,12 +5364,12 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <f>T68-S68</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:22">
       <c r="A69" s="1">
         <v>17</v>
       </c>
@@ -5432,12 +5432,12 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <f>T69-S69</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:22">
       <c r="A70" s="1">
         <v>17</v>
       </c>
@@ -5500,12 +5500,12 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <f>T70-S70</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:22">
       <c r="A71" s="1">
         <v>18</v>
       </c>
@@ -5568,12 +5568,12 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <f>T71-S71</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:22">
       <c r="A72" s="1">
         <v>18</v>
       </c>
@@ -5636,12 +5636,12 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <f>T72-S72</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:22">
       <c r="A73" s="1">
         <v>18</v>
       </c>
@@ -5704,12 +5704,12 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <f>T73-S73</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:22">
       <c r="A74" s="1">
         <v>18</v>
       </c>
@@ -5772,12 +5772,12 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <f>T74-S74</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:22">
       <c r="A75" s="1">
         <v>19</v>
       </c>
@@ -5840,12 +5840,12 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <f>T75-S75</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:22">
       <c r="A76" s="1">
         <v>19</v>
       </c>
@@ -5908,12 +5908,12 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <f>T76-S76</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:22">
       <c r="A77" s="1">
         <v>19</v>
       </c>
@@ -5976,12 +5976,12 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <f>T77-S77</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:22">
       <c r="A78" s="1">
         <v>19</v>
       </c>
@@ -6044,12 +6044,12 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <f>T78-S78</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:22">
       <c r="A79" s="1">
         <v>20</v>
       </c>
@@ -6112,12 +6112,12 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <f>T79-S79</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:22">
       <c r="A80" s="1">
         <v>20</v>
       </c>
@@ -6180,12 +6180,12 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <f>T80-S80</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:22">
       <c r="A81" s="1">
         <v>20</v>
       </c>
@@ -6248,12 +6248,12 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <f>T81-S81</f>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:22">
       <c r="A82" s="1">
         <v>21</v>
       </c>
@@ -6316,12 +6316,12 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <f>T82-S82</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:22">
       <c r="A83" s="1">
         <v>21</v>
       </c>
@@ -6384,12 +6384,12 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <f>T83-S83</f>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:22">
       <c r="A84" s="1">
         <v>21</v>
       </c>
@@ -6452,12 +6452,12 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <f>T84-S84</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:22">
       <c r="A85" s="1">
         <v>21</v>
       </c>
@@ -6520,12 +6520,12 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <f>T85-S85</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:22">
       <c r="A86" s="1">
         <v>21</v>
       </c>
@@ -6588,12 +6588,12 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <f>T86-S86</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:22">
       <c r="A87" s="1">
         <v>22</v>
       </c>
@@ -6656,12 +6656,12 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <f>T87-S87</f>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:22">
       <c r="A88" s="1">
         <v>22</v>
       </c>
@@ -6724,12 +6724,12 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <f>T88-S88</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:22">
       <c r="A89" s="1">
         <v>22</v>
       </c>
@@ -6792,12 +6792,12 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <f>T89-S89</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:22">
       <c r="A90" s="1">
         <v>22</v>
       </c>
@@ -6860,12 +6860,12 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <f>T90-S90</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:22">
       <c r="A91" s="1">
         <v>22</v>
       </c>
@@ -6928,12 +6928,12 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <f>T91-S91</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:22">
       <c r="A92" s="1">
         <v>23</v>
       </c>
@@ -6996,12 +6996,12 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <f>T92-S92</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:22">
       <c r="A93" s="1">
         <v>23</v>
       </c>
@@ -7064,12 +7064,12 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <f>T93-S93</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:22">
       <c r="A94" s="1">
         <v>23</v>
       </c>
@@ -7132,12 +7132,12 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <f>T94-S94</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:22">
       <c r="A95" s="1">
         <v>23</v>
       </c>
@@ -7200,12 +7200,12 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <f>T95-S95</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:22">
       <c r="A96" s="1">
         <v>24</v>
       </c>
@@ -7268,12 +7268,12 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <f>T96-S96</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:22">
       <c r="A97" s="1">
         <v>24</v>
       </c>
@@ -7336,12 +7336,12 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <f>T97-S97</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:22">
       <c r="A98" s="1">
         <v>24</v>
       </c>
@@ -7404,12 +7404,12 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <f>T98-S98</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:22">
       <c r="A99" s="1">
         <v>24</v>
       </c>
@@ -7472,12 +7472,12 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <f>T99-S99</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:22">
       <c r="A100" s="1">
         <v>24</v>
       </c>
@@ -7540,12 +7540,12 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <f>T100-S100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:22">
       <c r="A101" s="1">
         <v>25</v>
       </c>
@@ -7608,12 +7608,12 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <f>T101-S101</f>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:22">
       <c r="A102" s="1">
         <v>25</v>
       </c>
@@ -7676,12 +7676,12 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <f>T102-S102</f>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:22">
       <c r="A103" s="1">
         <v>25</v>
       </c>
@@ -7744,12 +7744,12 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <f>T103-S103</f>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:22">
       <c r="A104" s="1">
         <v>26</v>
       </c>
@@ -7812,12 +7812,12 @@
         <f t="shared" ref="T104:T167" si="2">SUM(D104:R104)</f>
         <v>35</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <f>T104-S104</f>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:22">
       <c r="A105" s="1">
         <v>26</v>
       </c>
@@ -7880,12 +7880,12 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <f>T105-S105</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:22">
       <c r="A106" s="1">
         <v>26</v>
       </c>
@@ -7948,12 +7948,12 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <f>T106-S106</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:22">
       <c r="A107" s="1">
         <v>26</v>
       </c>
@@ -8016,12 +8016,12 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <f>T107-S107</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:22">
       <c r="A108" s="1">
         <v>26</v>
       </c>
@@ -8084,12 +8084,12 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <f>T108-S108</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:22">
       <c r="A109" s="1">
         <v>27</v>
       </c>
@@ -8152,12 +8152,12 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <f>T109-S109</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:22">
       <c r="A110" s="1">
         <v>27</v>
       </c>
@@ -8220,12 +8220,12 @@
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <f>T110-S110</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:22">
       <c r="A111" s="1">
         <v>27</v>
       </c>
@@ -8288,12 +8288,12 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <f>T111-S111</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:22">
       <c r="A112" s="1">
         <v>27</v>
       </c>
@@ -8356,12 +8356,12 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <f>T112-S112</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:22">
       <c r="A113" s="1">
         <v>27</v>
       </c>
@@ -8424,12 +8424,12 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <f>T113-S113</f>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:22">
       <c r="A114" s="1">
         <v>28</v>
       </c>
@@ -8492,12 +8492,12 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <f>T114-S114</f>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:22">
       <c r="A115" s="1">
         <v>28</v>
       </c>
@@ -8560,12 +8560,12 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <f>T115-S115</f>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:22">
       <c r="A116" s="1">
         <v>28</v>
       </c>
@@ -8628,12 +8628,12 @@
         <f t="shared" si="2"/>
         <v>-7</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <f>T116-S116</f>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:22">
       <c r="A117" s="1">
         <v>28</v>
       </c>
@@ -8696,12 +8696,12 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <f>T117-S117</f>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:22">
       <c r="A118" s="1">
         <v>29</v>
       </c>
@@ -8764,12 +8764,12 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <f>T118-S118</f>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:22">
       <c r="A119" s="1">
         <v>29</v>
       </c>
@@ -8832,12 +8832,12 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <f>T119-S119</f>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:22">
       <c r="A120" s="1">
         <v>29</v>
       </c>
@@ -8900,12 +8900,12 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <f>T120-S120</f>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:22">
       <c r="A121" s="1">
         <v>29</v>
       </c>
@@ -8968,12 +8968,12 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <f>T121-S121</f>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:22">
       <c r="A122" s="1">
         <v>29</v>
       </c>
@@ -9036,12 +9036,12 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <f>T122-S122</f>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:22">
       <c r="A123" s="1">
         <v>30</v>
       </c>
@@ -9104,12 +9104,12 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <f>T123-S123</f>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:22">
       <c r="A124" s="1">
         <v>30</v>
       </c>
@@ -9172,12 +9172,12 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <f>T124-S124</f>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:22">
       <c r="A125" s="1">
         <v>30</v>
       </c>
@@ -9240,12 +9240,12 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <f>T125-S125</f>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:22">
       <c r="A126" s="1">
         <v>30</v>
       </c>
@@ -9308,12 +9308,12 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <f>T126-S126</f>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:22">
       <c r="A127" s="1">
         <v>30</v>
       </c>
@@ -9376,12 +9376,12 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <f>T127-S127</f>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:22">
       <c r="A128" s="1">
         <v>31</v>
       </c>
@@ -9444,12 +9444,12 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <f>T128-S128</f>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:22">
       <c r="A129" s="1">
         <v>31</v>
       </c>
@@ -9512,12 +9512,12 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <f>T129-S129</f>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:21">
+    <row r="130" spans="1:22">
       <c r="A130" s="1">
         <v>31</v>
       </c>
@@ -9580,12 +9580,12 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <f>T130-S130</f>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:21">
+    <row r="131" spans="1:22">
       <c r="A131" s="1">
         <v>31</v>
       </c>
@@ -9648,12 +9648,12 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <f>T131-S131</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:21">
+    <row r="132" spans="1:22">
       <c r="A132" s="1">
         <v>31</v>
       </c>
@@ -9716,12 +9716,12 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <f>T132-S132</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:22">
       <c r="A133" s="1">
         <v>32</v>
       </c>
@@ -9784,12 +9784,12 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <f>T133-S133</f>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:22">
       <c r="A134" s="1">
         <v>32</v>
       </c>
@@ -9852,12 +9852,12 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <f>T134-S134</f>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:22">
       <c r="A135" s="1">
         <v>32</v>
       </c>
@@ -9920,12 +9920,12 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <f>T135-S135</f>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:22">
       <c r="A136" s="1">
         <v>32</v>
       </c>
@@ -9988,12 +9988,12 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <f>T136-S136</f>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:22">
       <c r="A137" s="1">
         <v>32</v>
       </c>
@@ -10056,12 +10056,12 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <f>T137-S137</f>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:22">
       <c r="A138" s="1">
         <v>33</v>
       </c>
@@ -10124,12 +10124,12 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <f>T138-S138</f>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:22">
       <c r="A139" s="1">
         <v>33</v>
       </c>
@@ -10192,12 +10192,12 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <f>T139-S139</f>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:22">
       <c r="A140" s="1">
         <v>33</v>
       </c>
@@ -10260,12 +10260,12 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <f>T140-S140</f>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:22">
       <c r="A141" s="1">
         <v>34</v>
       </c>
@@ -10328,12 +10328,12 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <f>T141-S141</f>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:22">
       <c r="A142" s="1">
         <v>34</v>
       </c>
@@ -10396,12 +10396,12 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <f>T142-S142</f>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:22">
       <c r="A143" s="1">
         <v>34</v>
       </c>
@@ -10464,12 +10464,12 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <f>T143-S143</f>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:22">
       <c r="A144" s="1">
         <v>34</v>
       </c>
@@ -10532,12 +10532,12 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <f>T144-S144</f>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:22">
       <c r="A145" s="1">
         <v>34</v>
       </c>
@@ -10600,12 +10600,12 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <f>T145-S145</f>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:22">
       <c r="A146" s="1">
         <v>35</v>
       </c>
@@ -10668,12 +10668,12 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <f>T146-S146</f>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:22">
       <c r="A147" s="1">
         <v>35</v>
       </c>
@@ -10736,12 +10736,12 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <f>T147-S147</f>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:22">
       <c r="A148" s="1">
         <v>35</v>
       </c>
@@ -10804,12 +10804,12 @@
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <f>T148-S148</f>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:22">
       <c r="A149" s="1">
         <v>35</v>
       </c>
@@ -10872,12 +10872,12 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <f>T149-S149</f>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:22">
       <c r="A150" s="1">
         <v>36</v>
       </c>
@@ -10940,12 +10940,12 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <f>T150-S150</f>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:22">
       <c r="A151" s="1">
         <v>36</v>
       </c>
@@ -11008,12 +11008,12 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <f>T151-S151</f>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:22">
       <c r="A152" s="1">
         <v>36</v>
       </c>
@@ -11076,12 +11076,12 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <f>T152-S152</f>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:22">
       <c r="A153" s="1">
         <v>36</v>
       </c>
@@ -11144,12 +11144,12 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <f>T153-S153</f>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:22">
       <c r="A154" s="1">
         <v>37</v>
       </c>
@@ -11212,12 +11212,12 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <f>T154-S154</f>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:22">
       <c r="A155" s="1">
         <v>37</v>
       </c>
@@ -11280,12 +11280,12 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <f>T155-S155</f>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:22">
       <c r="A156" s="1">
         <v>37</v>
       </c>
@@ -11348,12 +11348,12 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <f>T156-S156</f>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:22">
       <c r="A157" s="1">
         <v>38</v>
       </c>
@@ -11416,12 +11416,12 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <f>T157-S157</f>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:22">
       <c r="A158" s="1">
         <v>38</v>
       </c>
@@ -11484,12 +11484,12 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <f>T158-S158</f>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:22">
       <c r="A159" s="1">
         <v>38</v>
       </c>
@@ -11552,12 +11552,12 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <f>T159-S159</f>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:22">
       <c r="A160" s="1">
         <v>38</v>
       </c>
@@ -11620,12 +11620,12 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <f>T160-S160</f>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:22">
       <c r="A161" s="1">
         <v>38</v>
       </c>
@@ -11688,12 +11688,12 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <f>T161-S161</f>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:22">
       <c r="A162" s="1">
         <v>39</v>
       </c>
@@ -11756,12 +11756,12 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <f>T162-S162</f>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:22">
       <c r="A163" s="1">
         <v>39</v>
       </c>
@@ -11824,12 +11824,12 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <f>T163-S163</f>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:22">
       <c r="A164" s="1">
         <v>39</v>
       </c>
@@ -11892,12 +11892,12 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <f>T164-S164</f>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:22">
       <c r="A165" s="1">
         <v>39</v>
       </c>
@@ -11960,12 +11960,12 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <f>T165-S165</f>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:22">
       <c r="A166" s="1">
         <v>39</v>
       </c>
@@ -12028,12 +12028,12 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <f>T166-S166</f>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:22">
       <c r="A167" s="1">
         <v>40</v>
       </c>
@@ -12096,12 +12096,12 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <f>T167-S167</f>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:22">
       <c r="A168" s="1">
         <v>40</v>
       </c>
@@ -12164,12 +12164,12 @@
         <f t="shared" ref="T168:T231" si="3">SUM(D168:R168)</f>
         <v>38</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <f>T168-S168</f>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:22">
       <c r="A169" s="1">
         <v>40</v>
       </c>
@@ -12232,12 +12232,12 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <f>T169-S169</f>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:21">
+    <row r="170" spans="1:22">
       <c r="A170" s="1">
         <v>40</v>
       </c>
@@ -12300,12 +12300,12 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <f>T170-S170</f>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:22">
       <c r="A171" s="1">
         <v>41</v>
       </c>
@@ -12368,12 +12368,12 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <f>T171-S171</f>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:22">
       <c r="A172" s="1">
         <v>41</v>
       </c>
@@ -12436,12 +12436,12 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <f>T172-S172</f>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:22">
       <c r="A173" s="1">
         <v>41</v>
       </c>
@@ -12504,12 +12504,12 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <f>T173-S173</f>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:22">
       <c r="A174" s="1">
         <v>41</v>
       </c>
@@ -12572,12 +12572,12 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <f>T174-S174</f>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:22">
       <c r="A175" s="1">
         <v>42</v>
       </c>
@@ -12640,12 +12640,12 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <f>T175-S175</f>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:22">
       <c r="A176" s="1">
         <v>42</v>
       </c>
@@ -12708,12 +12708,12 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <f>T176-S176</f>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:22">
       <c r="A177" s="1">
         <v>42</v>
       </c>
@@ -12776,12 +12776,12 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <f>T177-S177</f>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:22">
       <c r="A178" s="1">
         <v>42</v>
       </c>
@@ -12844,12 +12844,12 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <f>T178-S178</f>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:22">
       <c r="A179" s="1">
         <v>43</v>
       </c>
@@ -12912,12 +12912,12 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <f>T179-S179</f>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:22">
       <c r="A180" s="1">
         <v>43</v>
       </c>
@@ -12980,12 +12980,12 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <f>T180-S180</f>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:22">
       <c r="A181" s="1">
         <v>43</v>
       </c>
@@ -13048,12 +13048,12 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <f>T181-S181</f>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:22">
       <c r="A182" s="1">
         <v>43</v>
       </c>
@@ -13116,12 +13116,12 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <f>T182-S182</f>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:22">
       <c r="A183" s="1">
         <v>44</v>
       </c>
@@ -13184,12 +13184,12 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <f>T183-S183</f>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:22">
       <c r="A184" s="1">
         <v>44</v>
       </c>
@@ -13252,12 +13252,12 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <f>T184-S184</f>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:22">
       <c r="A185" s="1">
         <v>44</v>
       </c>
@@ -13320,12 +13320,12 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <f>T185-S185</f>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:22">
       <c r="A186" s="1">
         <v>44</v>
       </c>
@@ -13388,12 +13388,12 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <f>T186-S186</f>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:22">
       <c r="A187" s="1">
         <v>45</v>
       </c>
@@ -13456,12 +13456,12 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <f>T187-S187</f>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:22">
       <c r="A188" s="1">
         <v>45</v>
       </c>
@@ -13524,12 +13524,12 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <f>T188-S188</f>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:22">
       <c r="A189" s="1">
         <v>45</v>
       </c>
@@ -13592,12 +13592,12 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <f>T189-S189</f>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:22">
       <c r="A190" s="1">
         <v>45</v>
       </c>
@@ -13660,12 +13660,12 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <f>T190-S190</f>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:21">
+    <row r="191" spans="1:22">
       <c r="A191" s="1">
         <v>46</v>
       </c>
@@ -13728,12 +13728,12 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <f>T191-S191</f>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:21">
+    <row r="192" spans="1:22">
       <c r="A192" s="1">
         <v>46</v>
       </c>
@@ -13796,12 +13796,12 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <f>T192-S192</f>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:21">
+    <row r="193" spans="1:22">
       <c r="A193" s="1">
         <v>46</v>
       </c>
@@ -13864,12 +13864,12 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <f>T193-S193</f>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:21">
+    <row r="194" spans="1:22">
       <c r="A194" s="1">
         <v>46</v>
       </c>
@@ -13932,12 +13932,12 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <f>T194-S194</f>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:21">
+    <row r="195" spans="1:22">
       <c r="A195" s="1">
         <v>46</v>
       </c>
@@ -14000,12 +14000,12 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <f>T195-S195</f>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:21">
+    <row r="196" spans="1:22">
       <c r="A196" s="1">
         <v>47</v>
       </c>
@@ -14068,12 +14068,12 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <f>T196-S196</f>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:21">
+    <row r="197" spans="1:22">
       <c r="A197" s="1">
         <v>47</v>
       </c>
@@ -14136,12 +14136,12 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <f>T197-S197</f>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:21">
+    <row r="198" spans="1:22">
       <c r="A198" s="1">
         <v>47</v>
       </c>
@@ -14204,12 +14204,12 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <f>T198-S198</f>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:21">
+    <row r="199" spans="1:22">
       <c r="A199" s="1">
         <v>47</v>
       </c>
@@ -14272,12 +14272,12 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <f>T199-S199</f>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:21">
+    <row r="200" spans="1:22">
       <c r="A200" s="1">
         <v>48</v>
       </c>
@@ -14340,12 +14340,12 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <f>T200-S200</f>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:21">
+    <row r="201" spans="1:22">
       <c r="A201" s="1">
         <v>48</v>
       </c>
@@ -14408,12 +14408,12 @@
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <f>T201-S201</f>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:21">
+    <row r="202" spans="1:22">
       <c r="A202" s="1">
         <v>48</v>
       </c>
@@ -14476,12 +14476,12 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <f>T202-S202</f>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" spans="1:22">
       <c r="A203" s="1">
         <v>48</v>
       </c>
@@ -14544,12 +14544,12 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <f>T203-S203</f>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:21">
+    <row r="204" spans="1:22">
       <c r="A204">
         <v>49</v>
       </c>
@@ -14611,12 +14611,12 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <f>T204-S204</f>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:21">
+    <row r="205" spans="1:22">
       <c r="A205">
         <v>49</v>
       </c>
@@ -14678,12 +14678,12 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <f>T205-S205</f>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" spans="1:22">
       <c r="A206">
         <v>49</v>
       </c>
@@ -14745,12 +14745,12 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <f>T206-S206</f>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" spans="1:22">
       <c r="A207">
         <v>50</v>
       </c>
@@ -14812,12 +14812,12 @@
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <f>T207-S207</f>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:21">
+    <row r="208" spans="1:22">
       <c r="A208">
         <v>50</v>
       </c>
@@ -14879,12 +14879,12 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <f>T208-S208</f>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:21">
+    <row r="209" spans="1:22">
       <c r="A209">
         <v>50</v>
       </c>
@@ -14946,12 +14946,12 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <f>T209-S209</f>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:21">
+    <row r="210" spans="1:22">
       <c r="A210">
         <v>50</v>
       </c>
@@ -15013,12 +15013,12 @@
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <f>T210-S210</f>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:21">
+    <row r="211" spans="1:22">
       <c r="A211">
         <v>51</v>
       </c>
@@ -15080,12 +15080,12 @@
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <f>T211-S211</f>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:21">
+    <row r="212" spans="1:22">
       <c r="A212">
         <v>51</v>
       </c>
@@ -15147,12 +15147,12 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <f>T212-S212</f>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:21">
+    <row r="213" spans="1:22">
       <c r="A213">
         <v>51</v>
       </c>
@@ -15214,12 +15214,12 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <f>T213-S213</f>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:21">
+    <row r="214" spans="1:22">
       <c r="A214">
         <v>51</v>
       </c>
@@ -15281,12 +15281,12 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <f>T214-S214</f>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:21">
+    <row r="215" spans="1:22">
       <c r="A215">
         <v>52</v>
       </c>
@@ -15348,12 +15348,12 @@
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <f>T215-S215</f>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:21">
+    <row r="216" spans="1:22">
       <c r="A216">
         <v>52</v>
       </c>
@@ -15415,12 +15415,12 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <f>T216-S216</f>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:21">
+    <row r="217" spans="1:22">
       <c r="A217">
         <v>52</v>
       </c>
@@ -15482,12 +15482,12 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <f>T217-S217</f>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:21">
+    <row r="218" spans="1:22">
       <c r="A218">
         <v>52</v>
       </c>
@@ -15549,12 +15549,12 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <f>T218-S218</f>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:21">
+    <row r="219" spans="1:22">
       <c r="A219">
         <v>53</v>
       </c>
@@ -15616,12 +15616,12 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <f>T219-S219</f>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:21">
+    <row r="220" spans="1:22">
       <c r="A220">
         <v>53</v>
       </c>
@@ -15683,12 +15683,12 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <f>T220-S220</f>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:21">
+    <row r="221" spans="1:22">
       <c r="A221">
         <v>53</v>
       </c>
@@ -15750,12 +15750,12 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <f>T221-S221</f>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:21">
+    <row r="222" spans="1:22">
       <c r="A222">
         <v>54</v>
       </c>
@@ -15817,12 +15817,12 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <f>T222-S222</f>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:21">
+    <row r="223" spans="1:22">
       <c r="A223">
         <v>54</v>
       </c>
@@ -15884,12 +15884,12 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <f>T223-S223</f>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:21">
+    <row r="224" spans="1:22">
       <c r="A224">
         <v>54</v>
       </c>
@@ -15951,12 +15951,12 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <f>T224-S224</f>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:21">
+    <row r="225" spans="1:22">
       <c r="A225">
         <v>54</v>
       </c>
@@ -16018,12 +16018,12 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <f>T225-S225</f>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:21">
+    <row r="226" spans="1:22">
       <c r="A226">
         <v>55</v>
       </c>
@@ -16085,12 +16085,12 @@
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <f>T226-S226</f>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:21">
+    <row r="227" spans="1:22">
       <c r="A227">
         <v>55</v>
       </c>
@@ -16152,12 +16152,12 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <f>T227-S227</f>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:21">
+    <row r="228" spans="1:22">
       <c r="A228">
         <v>55</v>
       </c>
@@ -16219,12 +16219,12 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <f>T228-S228</f>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:21">
+    <row r="229" spans="1:22">
       <c r="A229">
         <v>55</v>
       </c>
@@ -16286,12 +16286,12 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <f>T229-S229</f>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:21">
+    <row r="230" spans="1:22">
       <c r="A230">
         <v>56</v>
       </c>
@@ -16353,12 +16353,12 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <f>T230-S230</f>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:21">
+    <row r="231" spans="1:22">
       <c r="A231">
         <v>56</v>
       </c>
@@ -16420,12 +16420,12 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <f>T231-S231</f>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:21">
+    <row r="232" spans="1:22">
       <c r="A232">
         <v>56</v>
       </c>
@@ -16487,12 +16487,12 @@
         <f t="shared" ref="T232:T257" si="4">SUM(D232:R232)</f>
         <v>33</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <f>T232-S232</f>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:21">
+    <row r="233" spans="1:22">
       <c r="A233">
         <v>56</v>
       </c>
@@ -16554,12 +16554,12 @@
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <f>T233-S233</f>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:21">
+    <row r="234" spans="1:22">
       <c r="A234">
         <v>57</v>
       </c>
@@ -16621,12 +16621,12 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <f>T234-S234</f>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:21">
+    <row r="235" spans="1:22">
       <c r="A235">
         <v>57</v>
       </c>
@@ -16688,12 +16688,12 @@
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <f>T235-S235</f>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:21">
+    <row r="236" spans="1:22">
       <c r="A236">
         <v>57</v>
       </c>
@@ -16755,12 +16755,12 @@
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <f>T236-S236</f>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:21">
+    <row r="237" spans="1:22">
       <c r="A237">
         <v>57</v>
       </c>
@@ -16822,12 +16822,12 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <f>T237-S237</f>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:21">
+    <row r="238" spans="1:22">
       <c r="A238">
         <v>58</v>
       </c>
@@ -16889,12 +16889,12 @@
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="U238">
+      <c r="V238">
         <f>T238-S238</f>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:21">
+    <row r="239" spans="1:22">
       <c r="A239">
         <v>58</v>
       </c>
@@ -16956,12 +16956,12 @@
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <f>T239-S239</f>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:21">
+    <row r="240" spans="1:22">
       <c r="A240">
         <v>58</v>
       </c>
@@ -17023,12 +17023,12 @@
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <f>T240-S240</f>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:21">
+    <row r="241" spans="1:22">
       <c r="A241">
         <v>58</v>
       </c>
@@ -17090,12 +17090,12 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="U241">
+      <c r="V241">
         <f>T241-S241</f>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:21">
+    <row r="242" spans="1:22">
       <c r="A242">
         <v>59</v>
       </c>
@@ -17157,12 +17157,12 @@
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <f>T242-S242</f>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:21">
+    <row r="243" spans="1:22">
       <c r="A243">
         <v>59</v>
       </c>
@@ -17224,12 +17224,12 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <f>T243-S243</f>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:21">
+    <row r="244" spans="1:22">
       <c r="A244">
         <v>59</v>
       </c>
@@ -17291,12 +17291,12 @@
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <f>T244-S244</f>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:21">
+    <row r="245" spans="1:22">
       <c r="A245">
         <v>59</v>
       </c>
@@ -17358,12 +17358,12 @@
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="U245">
+      <c r="V245">
         <f>T245-S245</f>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:21">
+    <row r="246" spans="1:22">
       <c r="A246">
         <v>60</v>
       </c>
@@ -17425,12 +17425,12 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="U246">
+      <c r="V246">
         <f>T246-S246</f>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:21">
+    <row r="247" spans="1:22">
       <c r="A247">
         <v>60</v>
       </c>
@@ -17492,12 +17492,12 @@
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="U247">
+      <c r="V247">
         <f>T247-S247</f>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:21">
+    <row r="248" spans="1:22">
       <c r="A248">
         <v>60</v>
       </c>
@@ -17559,12 +17559,12 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="U248">
+      <c r="V248">
         <f>T248-S248</f>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:21">
+    <row r="249" spans="1:22">
       <c r="A249">
         <v>60</v>
       </c>
@@ -17626,12 +17626,12 @@
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="U249">
+      <c r="V249">
         <f>T249-S249</f>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:21">
+    <row r="250" spans="1:22">
       <c r="A250">
         <v>61</v>
       </c>
@@ -17693,12 +17693,12 @@
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="U250">
+      <c r="V250">
         <f>T250-S250</f>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:21">
+    <row r="251" spans="1:22">
       <c r="A251">
         <v>61</v>
       </c>
@@ -17760,12 +17760,12 @@
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="U251">
+      <c r="V251">
         <f>T251-S251</f>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:21">
+    <row r="252" spans="1:22">
       <c r="A252">
         <v>61</v>
       </c>
@@ -17827,12 +17827,12 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="U252">
+      <c r="V252">
         <f>T252-S252</f>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:21">
+    <row r="253" spans="1:22">
       <c r="A253">
         <v>61</v>
       </c>
@@ -17894,12 +17894,12 @@
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="U253">
+      <c r="V253">
         <f>T253-S253</f>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:21">
+    <row r="254" spans="1:22">
       <c r="A254">
         <v>62</v>
       </c>
@@ -17961,12 +17961,12 @@
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="U254">
+      <c r="V254">
         <f>T254-S254</f>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:21">
+    <row r="255" spans="1:22">
       <c r="A255">
         <v>62</v>
       </c>
@@ -18028,12 +18028,12 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="U255">
+      <c r="V255">
         <f>T255-S255</f>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:21">
+    <row r="256" spans="1:22">
       <c r="A256">
         <v>62</v>
       </c>
@@ -18095,12 +18095,12 @@
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="U256">
+      <c r="V256">
         <f>T256-S256</f>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:21">
+    <row r="257" spans="1:22">
       <c r="A257">
         <v>62</v>
       </c>
@@ -18162,12 +18162,12 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="U257">
+      <c r="V257">
         <f>T257-S257</f>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:21">
+    <row r="258" spans="1:22">
       <c r="A258">
         <v>63</v>
       </c>
@@ -18229,12 +18229,12 @@
         <f>SUM(D258:R258)</f>
         <v>34</v>
       </c>
-      <c r="U258">
+      <c r="V258">
         <f>T258-S258</f>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:21">
+    <row r="259" spans="1:22">
       <c r="A259">
         <v>63</v>
       </c>
@@ -18296,12 +18296,12 @@
         <f>SUM(D259:R259)</f>
         <v>33</v>
       </c>
-      <c r="U259">
+      <c r="V259">
         <f>T259-S259</f>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:21">
+    <row r="260" spans="1:22">
       <c r="A260">
         <v>63</v>
       </c>
@@ -18363,12 +18363,12 @@
         <f>SUM(D260:R260)</f>
         <v>42</v>
       </c>
-      <c r="U260">
+      <c r="V260">
         <f>T260-S260</f>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:21">
+    <row r="261" spans="1:22">
       <c r="A261">
         <v>63</v>
       </c>
@@ -18430,12 +18430,12 @@
         <f>SUM(D261:R261)</f>
         <v>26</v>
       </c>
-      <c r="U261">
+      <c r="V261">
         <f>T261-S261</f>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:21">
+    <row r="262" spans="1:22">
       <c r="A262">
         <v>64</v>
       </c>
@@ -18497,12 +18497,12 @@
         <f>SUM(D262:R262)</f>
         <v>48</v>
       </c>
-      <c r="U262">
+      <c r="V262">
         <f>T262-S262</f>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:21">
+    <row r="263" spans="1:22">
       <c r="A263">
         <v>64</v>
       </c>
@@ -18564,12 +18564,12 @@
         <f t="shared" ref="T263:T273" si="5">SUM(D263:R263)</f>
         <v>36</v>
       </c>
-      <c r="U263">
+      <c r="V263">
         <f>T263-S263</f>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:21">
+    <row r="264" spans="1:22">
       <c r="A264">
         <v>64</v>
       </c>
@@ -18631,12 +18631,12 @@
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="U264">
+      <c r="V264">
         <f>T264-S264</f>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:21">
+    <row r="265" spans="1:22">
       <c r="A265">
         <v>64</v>
       </c>
@@ -18698,12 +18698,12 @@
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="U265">
+      <c r="V265">
         <f>T265-S265</f>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:21">
+    <row r="266" spans="1:22">
       <c r="A266">
         <v>65</v>
       </c>
@@ -18765,12 +18765,12 @@
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="U266">
+      <c r="V266">
         <f>T266-S266</f>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:21">
+    <row r="267" spans="1:22">
       <c r="A267">
         <v>65</v>
       </c>
@@ -18832,12 +18832,12 @@
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="U267">
+      <c r="V267">
         <f>T267-S267</f>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:21">
+    <row r="268" spans="1:22">
       <c r="A268">
         <v>65</v>
       </c>
@@ -18899,12 +18899,12 @@
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="U268">
+      <c r="V268">
         <f>T268-S268</f>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:21">
+    <row r="269" spans="1:22">
       <c r="A269">
         <v>65</v>
       </c>
@@ -18966,12 +18966,12 @@
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="U269">
+      <c r="V269">
         <f>T269-S269</f>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:21">
+    <row r="270" spans="1:22">
       <c r="A270">
         <v>66</v>
       </c>
@@ -19033,12 +19033,12 @@
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
-      <c r="U270">
+      <c r="V270">
         <f>T270-S270</f>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:21">
+    <row r="271" spans="1:22">
       <c r="A271">
         <v>66</v>
       </c>
@@ -19100,12 +19100,12 @@
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="U271">
+      <c r="V271">
         <f>T271-S271</f>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:21">
+    <row r="272" spans="1:22">
       <c r="A272">
         <v>66</v>
       </c>
@@ -19167,12 +19167,12 @@
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
-      <c r="U272">
+      <c r="V272">
         <f>T272-S272</f>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:21">
+    <row r="273" spans="1:22">
       <c r="A273">
         <v>66</v>
       </c>
@@ -19234,12 +19234,12 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="U273">
+      <c r="V273">
         <f>T273-S273</f>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:21">
+    <row r="274" spans="1:22">
       <c r="A274">
         <v>67</v>
       </c>
@@ -19301,12 +19301,12 @@
         <f t="shared" ref="T274:T337" si="6">SUM(D274:R274)</f>
         <v>53</v>
       </c>
-      <c r="U274">
+      <c r="V274">
         <f>T274-S274</f>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:21">
+    <row r="275" spans="1:22">
       <c r="A275">
         <v>67</v>
       </c>
@@ -19368,12 +19368,12 @@
         <f t="shared" si="6"/>
         <v>47</v>
       </c>
-      <c r="U275">
+      <c r="V275">
         <f>T275-S275</f>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:21">
+    <row r="276" spans="1:22">
       <c r="A276">
         <v>67</v>
       </c>
@@ -19435,12 +19435,12 @@
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="U276">
+      <c r="V276">
         <f>T276-S276</f>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:21">
+    <row r="277" spans="1:22">
       <c r="A277">
         <v>67</v>
       </c>
@@ -19502,12 +19502,12 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="U277">
+      <c r="V277">
         <f>T277-S277</f>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:21">
+    <row r="278" spans="1:22">
       <c r="A278">
         <v>68</v>
       </c>
@@ -19569,12 +19569,12 @@
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="U278">
+      <c r="V278">
         <f>T278-S278</f>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:21">
+    <row r="279" spans="1:22">
       <c r="A279">
         <v>68</v>
       </c>
@@ -19636,12 +19636,12 @@
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="U279">
+      <c r="V279">
         <f>T279-S279</f>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:21">
+    <row r="280" spans="1:22">
       <c r="A280">
         <v>68</v>
       </c>
@@ -19703,12 +19703,12 @@
         <f t="shared" si="6"/>
         <v>41</v>
       </c>
-      <c r="U280">
+      <c r="V280">
         <f>T280-S280</f>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:21">
+    <row r="281" spans="1:22">
       <c r="A281">
         <v>68</v>
       </c>
@@ -19770,12 +19770,12 @@
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="U281">
+      <c r="V281">
         <f>T281-S281</f>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:21">
+    <row r="282" spans="1:22">
       <c r="A282">
         <v>69</v>
       </c>
@@ -19837,12 +19837,12 @@
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="U282">
+      <c r="V282">
         <f>T282-S282</f>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:21">
+    <row r="283" spans="1:22">
       <c r="A283">
         <v>69</v>
       </c>
@@ -19904,12 +19904,12 @@
         <f t="shared" si="6"/>
         <v>41</v>
       </c>
-      <c r="U283">
+      <c r="V283">
         <f>T283-S283</f>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:21">
+    <row r="284" spans="1:22">
       <c r="A284">
         <v>69</v>
       </c>
@@ -19971,12 +19971,12 @@
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="U284">
+      <c r="V284">
         <f>T284-S284</f>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:21">
+    <row r="285" spans="1:22">
       <c r="A285">
         <v>69</v>
       </c>
@@ -20038,12 +20038,12 @@
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="U285">
+      <c r="V285">
         <f>T285-S285</f>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:21">
+    <row r="286" spans="1:22">
       <c r="A286">
         <v>70</v>
       </c>
@@ -20105,12 +20105,12 @@
         <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="U286">
+      <c r="V286">
         <f>T286-S286</f>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:21">
+    <row r="287" spans="1:22">
       <c r="A287">
         <v>70</v>
       </c>
@@ -20172,12 +20172,12 @@
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="U287">
+      <c r="V287">
         <f>T287-S287</f>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:21">
+    <row r="288" spans="1:22">
       <c r="A288">
         <v>70</v>
       </c>
@@ -20239,12 +20239,12 @@
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="U288">
+      <c r="V288">
         <f>T288-S288</f>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:21">
+    <row r="289" spans="1:22">
       <c r="A289">
         <v>70</v>
       </c>
@@ -20306,12 +20306,12 @@
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="U289">
+      <c r="V289">
         <f>T289-S289</f>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:21">
+    <row r="290" spans="1:22">
       <c r="A290">
         <v>71</v>
       </c>
@@ -20373,12 +20373,12 @@
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="U290">
+      <c r="V290">
         <f>T290-S290</f>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:21">
+    <row r="291" spans="1:22">
       <c r="A291">
         <v>71</v>
       </c>
@@ -20440,12 +20440,12 @@
         <f t="shared" si="6"/>
         <v>37</v>
       </c>
-      <c r="U291">
+      <c r="V291">
         <f>T291-S291</f>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:21">
+    <row r="292" spans="1:22">
       <c r="A292">
         <v>71</v>
       </c>
@@ -20507,12 +20507,12 @@
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="U292">
+      <c r="V292">
         <f>T292-S292</f>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:21">
+    <row r="293" spans="1:22">
       <c r="A293">
         <v>71</v>
       </c>
@@ -20574,12 +20574,12 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="U293">
+      <c r="V293">
         <f>T293-S293</f>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:21">
+    <row r="294" spans="1:22">
       <c r="A294">
         <v>72</v>
       </c>
@@ -20641,12 +20641,12 @@
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="U294">
+      <c r="V294">
         <f>T294-S294</f>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:21">
+    <row r="295" spans="1:22">
       <c r="A295">
         <v>72</v>
       </c>
@@ -20708,12 +20708,12 @@
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="U295">
+      <c r="V295">
         <f>T295-S295</f>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:21">
+    <row r="296" spans="1:22">
       <c r="A296">
         <v>72</v>
       </c>
@@ -20775,12 +20775,12 @@
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="U296">
+      <c r="V296">
         <f>T296-S296</f>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:21">
+    <row r="297" spans="1:22">
       <c r="A297">
         <v>72</v>
       </c>
@@ -20842,12 +20842,12 @@
         <f t="shared" si="6"/>
         <v>44</v>
       </c>
-      <c r="U297">
+      <c r="V297">
         <f>T297-S297</f>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:21">
+    <row r="298" spans="1:22">
       <c r="A298">
         <v>73</v>
       </c>
@@ -20909,12 +20909,12 @@
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="U298">
+      <c r="V298">
         <f>T298-S298</f>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:21">
+    <row r="299" spans="1:22">
       <c r="A299">
         <v>73</v>
       </c>
@@ -20976,12 +20976,12 @@
         <f t="shared" si="6"/>
         <v>43</v>
       </c>
-      <c r="U299">
+      <c r="V299">
         <f>T299-S299</f>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:21">
+    <row r="300" spans="1:22">
       <c r="A300">
         <v>73</v>
       </c>
@@ -21043,12 +21043,12 @@
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="U300">
+      <c r="V300">
         <f>T300-S300</f>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:21">
+    <row r="301" spans="1:22">
       <c r="A301">
         <v>73</v>
       </c>
@@ -21110,12 +21110,12 @@
         <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="U301">
+      <c r="V301">
         <f>T301-S301</f>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:21">
+    <row r="302" spans="1:22">
       <c r="A302">
         <v>74</v>
       </c>
@@ -21177,12 +21177,12 @@
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="U302">
+      <c r="V302">
         <f>T302-S302</f>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:21">
+    <row r="303" spans="1:22">
       <c r="A303">
         <v>74</v>
       </c>
@@ -21244,12 +21244,12 @@
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="U303">
+      <c r="V303">
         <f>T303-S303</f>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:21">
+    <row r="304" spans="1:22">
       <c r="A304">
         <v>74</v>
       </c>
@@ -21311,12 +21311,12 @@
         <f t="shared" si="6"/>
         <v>41</v>
       </c>
-      <c r="U304">
+      <c r="V304">
         <f>T304-S304</f>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:21">
+    <row r="305" spans="1:22">
       <c r="A305">
         <v>74</v>
       </c>
@@ -21378,12 +21378,12 @@
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="U305">
+      <c r="V305">
         <f>T305-S305</f>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:21">
+    <row r="306" spans="1:22">
       <c r="A306">
         <v>75</v>
       </c>
@@ -21445,12 +21445,12 @@
         <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="U306">
+      <c r="V306">
         <f>T306-S306</f>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:21">
+    <row r="307" spans="1:22">
       <c r="A307">
         <v>75</v>
       </c>
@@ -21512,12 +21512,12 @@
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="U307">
+      <c r="V307">
         <f>T307-S307</f>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:21">
+    <row r="308" spans="1:22">
       <c r="A308">
         <v>75</v>
       </c>
@@ -21579,12 +21579,12 @@
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="U308">
+      <c r="V308">
         <f>T308-S308</f>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:21">
+    <row r="309" spans="1:22">
       <c r="A309">
         <v>75</v>
       </c>
@@ -21646,12 +21646,12 @@
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="U309">
+      <c r="V309">
         <f>T309-S309</f>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:21">
+    <row r="310" spans="1:22">
       <c r="A310">
         <v>76</v>
       </c>
@@ -21713,12 +21713,12 @@
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
-      <c r="U310">
+      <c r="V310">
         <f>T310-S310</f>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:21">
+    <row r="311" spans="1:22">
       <c r="A311">
         <v>76</v>
       </c>
@@ -21780,12 +21780,12 @@
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="U311">
+      <c r="V311">
         <f>T311-S311</f>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:21">
+    <row r="312" spans="1:22">
       <c r="A312">
         <v>76</v>
       </c>
@@ -21847,12 +21847,12 @@
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="U312">
+      <c r="V312">
         <f>T312-S312</f>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:21">
+    <row r="313" spans="1:22">
       <c r="A313">
         <v>76</v>
       </c>
@@ -21914,12 +21914,12 @@
         <f t="shared" si="6"/>
         <v>41</v>
       </c>
-      <c r="U313">
+      <c r="V313">
         <f>T313-S313</f>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:21">
+    <row r="314" spans="1:22">
       <c r="A314">
         <v>77</v>
       </c>
@@ -21981,12 +21981,12 @@
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="U314">
+      <c r="V314">
         <f>T314-S314</f>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:21">
+    <row r="315" spans="1:22">
       <c r="A315">
         <v>77</v>
       </c>
@@ -22048,12 +22048,12 @@
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="U315">
+      <c r="V315">
         <f>T315-S315</f>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:21">
+    <row r="316" spans="1:22">
       <c r="A316">
         <v>77</v>
       </c>
@@ -22115,12 +22115,12 @@
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="U316">
+      <c r="V316">
         <f>T316-S316</f>
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:21">
+    <row r="317" spans="1:22">
       <c r="A317">
         <v>77</v>
       </c>
@@ -22182,12 +22182,12 @@
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="U317">
+      <c r="V317">
         <f>T317-S317</f>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:21">
+    <row r="318" spans="1:22">
       <c r="A318">
         <v>78</v>
       </c>
@@ -22249,12 +22249,12 @@
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="U318">
+      <c r="V318">
         <f>T318-S318</f>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:21">
+    <row r="319" spans="1:22">
       <c r="A319">
         <v>78</v>
       </c>
@@ -22316,12 +22316,12 @@
         <f t="shared" si="6"/>
         <v>39</v>
       </c>
-      <c r="U319">
+      <c r="V319">
         <f>T319-S319</f>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:21">
+    <row r="320" spans="1:22">
       <c r="A320">
         <v>78</v>
       </c>
@@ -22383,12 +22383,12 @@
         <f t="shared" si="6"/>
         <v>47</v>
       </c>
-      <c r="U320">
+      <c r="V320">
         <f>T320-S320</f>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:21">
+    <row r="321" spans="1:22">
       <c r="A321">
         <v>78</v>
       </c>
@@ -22450,12 +22450,12 @@
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="U321">
+      <c r="V321">
         <f>T321-S321</f>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:21">
+    <row r="322" spans="1:22">
       <c r="A322">
         <v>79</v>
       </c>
@@ -22517,12 +22517,12 @@
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="U322">
+      <c r="V322">
         <f>T322-S322</f>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:21">
+    <row r="323" spans="1:22">
       <c r="A323">
         <v>79</v>
       </c>
@@ -22584,12 +22584,12 @@
         <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="U323">
+      <c r="V323">
         <f>T323-S323</f>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:21">
+    <row r="324" spans="1:22">
       <c r="A324">
         <v>79</v>
       </c>
@@ -22651,12 +22651,12 @@
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="U324">
+      <c r="V324">
         <f>T324-S324</f>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:21">
+    <row r="325" spans="1:22">
       <c r="A325">
         <v>79</v>
       </c>
@@ -22718,12 +22718,12 @@
         <f t="shared" si="6"/>
         <v>43</v>
       </c>
-      <c r="U325">
+      <c r="V325">
         <f>T325-S325</f>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:21">
+    <row r="326" spans="1:22">
       <c r="A326">
         <v>80</v>
       </c>
@@ -22785,12 +22785,12 @@
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="U326">
+      <c r="V326">
         <f>T326-S326</f>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:21">
+    <row r="327" spans="1:22">
       <c r="A327">
         <v>80</v>
       </c>
@@ -22852,12 +22852,12 @@
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="U327">
+      <c r="V327">
         <f>T327-S327</f>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:21">
+    <row r="328" spans="1:22">
       <c r="A328">
         <v>80</v>
       </c>
@@ -22919,12 +22919,12 @@
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="U328">
+      <c r="V328">
         <f>T328-S328</f>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:21">
+    <row r="329" spans="1:22">
       <c r="A329">
         <v>80</v>
       </c>
@@ -22986,12 +22986,12 @@
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="U329">
+      <c r="V329">
         <f>T329-S329</f>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:21">
+    <row r="330" spans="1:22">
       <c r="A330">
         <v>81</v>
       </c>
@@ -23053,12 +23053,12 @@
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="U330">
+      <c r="V330">
         <f>T330-S330</f>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:21">
+    <row r="331" spans="1:22">
       <c r="A331">
         <v>81</v>
       </c>
@@ -23120,12 +23120,12 @@
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="U331">
+      <c r="V331">
         <f>T331-S331</f>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:21">
+    <row r="332" spans="1:22">
       <c r="A332">
         <v>81</v>
       </c>
@@ -23187,12 +23187,12 @@
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="U332">
+      <c r="V332">
         <f>T332-S332</f>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:21">
+    <row r="333" spans="1:22">
       <c r="A333">
         <v>81</v>
       </c>
@@ -23254,12 +23254,12 @@
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="U333">
+      <c r="V333">
         <f>T333-S333</f>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:21">
+    <row r="334" spans="1:22">
       <c r="A334">
         <v>82</v>
       </c>
@@ -23321,12 +23321,12 @@
         <f t="shared" si="6"/>
         <v>43</v>
       </c>
-      <c r="U334">
+      <c r="V334">
         <f>T334-S334</f>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:21">
+    <row r="335" spans="1:22">
       <c r="A335">
         <v>82</v>
       </c>
@@ -23388,12 +23388,12 @@
         <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="U335">
+      <c r="V335">
         <f>T335-S335</f>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:21">
+    <row r="336" spans="1:22">
       <c r="A336">
         <v>82</v>
       </c>
@@ -23455,12 +23455,12 @@
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="U336">
+      <c r="V336">
         <f>T336-S336</f>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:21">
+    <row r="337" spans="1:22">
       <c r="A337">
         <v>82</v>
       </c>
@@ -23522,12 +23522,12 @@
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="U337">
+      <c r="V337">
         <f>T337-S337</f>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:21">
+    <row r="338" spans="1:22">
       <c r="A338">
         <v>83</v>
       </c>
@@ -23589,12 +23589,12 @@
         <f t="shared" ref="T338:T401" si="7">SUM(D338:R338)</f>
         <v>40</v>
       </c>
-      <c r="U338">
+      <c r="V338">
         <f>T338-S338</f>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:21">
+    <row r="339" spans="1:22">
       <c r="A339">
         <v>83</v>
       </c>
@@ -23656,12 +23656,12 @@
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="U339">
+      <c r="V339">
         <f>T339-S339</f>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:21">
+    <row r="340" spans="1:22">
       <c r="A340">
         <v>83</v>
       </c>
@@ -23723,12 +23723,12 @@
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="U340">
+      <c r="V340">
         <f>T340-S340</f>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:21">
+    <row r="341" spans="1:22">
       <c r="A341">
         <v>83</v>
       </c>
@@ -23790,12 +23790,12 @@
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="U341">
+      <c r="V341">
         <f>T341-S341</f>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:21">
+    <row r="342" spans="1:22">
       <c r="A342">
         <v>84</v>
       </c>
@@ -23857,12 +23857,12 @@
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="U342">
+      <c r="V342">
         <f>T342-S342</f>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:21">
+    <row r="343" spans="1:22">
       <c r="A343">
         <v>84</v>
       </c>
@@ -23924,12 +23924,12 @@
         <f t="shared" si="7"/>
         <v>43</v>
       </c>
-      <c r="U343">
+      <c r="V343">
         <f>T343-S343</f>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:21">
+    <row r="344" spans="1:22">
       <c r="A344">
         <v>84</v>
       </c>
@@ -23991,12 +23991,12 @@
         <f t="shared" si="7"/>
         <v>44</v>
       </c>
-      <c r="U344">
+      <c r="V344">
         <f>T344-S344</f>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:21">
+    <row r="345" spans="1:22">
       <c r="A345">
         <v>85</v>
       </c>
@@ -24058,12 +24058,12 @@
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="U345">
+      <c r="V345">
         <f>T345-S345</f>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:21">
+    <row r="346" spans="1:22">
       <c r="A346">
         <v>85</v>
       </c>
@@ -24125,12 +24125,12 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="U346">
+      <c r="V346">
         <f>T346-S346</f>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:21">
+    <row r="347" spans="1:22">
       <c r="A347">
         <v>85</v>
       </c>
@@ -24192,12 +24192,12 @@
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="U347">
+      <c r="V347">
         <f>T347-S347</f>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:21">
+    <row r="348" spans="1:22">
       <c r="A348">
         <v>85</v>
       </c>
@@ -24259,12 +24259,12 @@
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="U348">
+      <c r="V348">
         <f>T348-S348</f>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:21">
+    <row r="349" spans="1:22">
       <c r="A349">
         <v>86</v>
       </c>
@@ -24326,12 +24326,12 @@
         <f t="shared" si="7"/>
         <v>51</v>
       </c>
-      <c r="U349">
+      <c r="V349">
         <f>T349-S349</f>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:21">
+    <row r="350" spans="1:22">
       <c r="A350">
         <v>86</v>
       </c>
@@ -24393,12 +24393,12 @@
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="U350">
+      <c r="V350">
         <f>T350-S350</f>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:21">
+    <row r="351" spans="1:22">
       <c r="A351">
         <v>86</v>
       </c>
@@ -24460,12 +24460,12 @@
         <f t="shared" si="7"/>
         <v>47</v>
       </c>
-      <c r="U351">
+      <c r="V351">
         <f>T351-S351</f>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:21">
+    <row r="352" spans="1:22">
       <c r="A352">
         <v>86</v>
       </c>
@@ -24527,12 +24527,12 @@
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="U352">
+      <c r="V352">
         <f>T352-S352</f>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:21">
+    <row r="353" spans="1:22">
       <c r="A353">
         <v>87</v>
       </c>
@@ -24594,12 +24594,12 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="U353">
+      <c r="V353">
         <f>T353-S353</f>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:21">
+    <row r="354" spans="1:22">
       <c r="A354">
         <v>87</v>
       </c>
@@ -24661,12 +24661,12 @@
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="U354">
+      <c r="V354">
         <f>T354-S354</f>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:21">
+    <row r="355" spans="1:22">
       <c r="A355">
         <v>87</v>
       </c>
@@ -24728,12 +24728,12 @@
         <f t="shared" si="7"/>
         <v>46</v>
       </c>
-      <c r="U355">
+      <c r="V355">
         <f>T355-S355</f>
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:21">
+    <row r="356" spans="1:22">
       <c r="A356">
         <v>87</v>
       </c>
@@ -24795,12 +24795,12 @@
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="U356">
+      <c r="V356">
         <f>T356-S356</f>
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:21">
+    <row r="357" spans="1:22">
       <c r="A357">
         <v>88</v>
       </c>
@@ -24862,12 +24862,12 @@
         <f t="shared" si="7"/>
         <v>47</v>
       </c>
-      <c r="U357">
+      <c r="V357">
         <f>T357-S357</f>
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:21">
+    <row r="358" spans="1:22">
       <c r="A358">
         <v>88</v>
       </c>
@@ -24929,12 +24929,12 @@
         <f t="shared" si="7"/>
         <v>46</v>
       </c>
-      <c r="U358">
+      <c r="V358">
         <f>T358-S358</f>
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:21">
+    <row r="359" spans="1:22">
       <c r="A359">
         <v>88</v>
       </c>
@@ -24996,12 +24996,12 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="U359">
+      <c r="V359">
         <f>T359-S359</f>
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:21">
+    <row r="360" spans="1:22">
       <c r="A360">
         <v>88</v>
       </c>
@@ -25063,12 +25063,12 @@
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="U360">
+      <c r="V360">
         <f>T360-S360</f>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:21">
+    <row r="361" spans="1:22">
       <c r="A361">
         <v>89</v>
       </c>
@@ -25130,12 +25130,12 @@
         <f t="shared" si="7"/>
         <v>44</v>
       </c>
-      <c r="U361">
+      <c r="V361">
         <f>T361-S361</f>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:21">
+    <row r="362" spans="1:22">
       <c r="A362">
         <v>89</v>
       </c>
@@ -25197,12 +25197,12 @@
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="U362">
+      <c r="V362">
         <f>T362-S362</f>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:21">
+    <row r="363" spans="1:22">
       <c r="A363">
         <v>89</v>
       </c>
@@ -25264,12 +25264,12 @@
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="U363">
+      <c r="V363">
         <f>T363-S363</f>
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:21">
+    <row r="364" spans="1:22">
       <c r="A364">
         <v>89</v>
       </c>
@@ -25331,12 +25331,12 @@
         <f t="shared" si="7"/>
         <v>46</v>
       </c>
-      <c r="U364">
+      <c r="V364">
         <f>T364-S364</f>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:21">
+    <row r="365" spans="1:22">
       <c r="A365">
         <v>90</v>
       </c>
@@ -25398,12 +25398,12 @@
         <f t="shared" si="7"/>
         <v>44</v>
       </c>
-      <c r="U365">
+      <c r="V365">
         <f>T365-S365</f>
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:21">
+    <row r="366" spans="1:22">
       <c r="A366">
         <v>90</v>
       </c>
@@ -25465,12 +25465,12 @@
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="U366">
+      <c r="V366">
         <f>T366-S366</f>
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:21">
+    <row r="367" spans="1:22">
       <c r="A367">
         <v>90</v>
       </c>
@@ -25532,12 +25532,12 @@
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="U367">
+      <c r="V367">
         <f>T367-S367</f>
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:21">
+    <row r="368" spans="1:22">
       <c r="A368">
         <v>90</v>
       </c>
@@ -25599,12 +25599,12 @@
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="U368">
+      <c r="V368">
         <f>T368-S368</f>
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:21">
+    <row r="369" spans="1:22">
       <c r="A369">
         <v>91</v>
       </c>
@@ -25666,12 +25666,12 @@
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="U369">
+      <c r="V369">
         <f>T369-S369</f>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:21">
+    <row r="370" spans="1:22">
       <c r="A370">
         <v>91</v>
       </c>
@@ -25733,12 +25733,12 @@
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="U370">
+      <c r="V370">
         <f>T370-S370</f>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:21">
+    <row r="371" spans="1:22">
       <c r="A371">
         <v>91</v>
       </c>
@@ -25800,12 +25800,12 @@
         <f t="shared" si="7"/>
         <v>58</v>
       </c>
-      <c r="U371">
+      <c r="V371">
         <f>T371-S371</f>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:21">
+    <row r="372" spans="1:22">
       <c r="A372">
         <v>91</v>
       </c>
@@ -25867,12 +25867,12 @@
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="U372">
+      <c r="V372">
         <f>T372-S372</f>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:21">
+    <row r="373" spans="1:22">
       <c r="A373">
         <v>91</v>
       </c>
@@ -25934,12 +25934,12 @@
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="U373">
+      <c r="V373">
         <f>T373-S373</f>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:21">
+    <row r="374" spans="1:22">
       <c r="A374">
         <v>92</v>
       </c>
@@ -26001,12 +26001,12 @@
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="U374">
+      <c r="V374">
         <f>T374-S374</f>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:21">
+    <row r="375" spans="1:22">
       <c r="A375">
         <v>92</v>
       </c>
@@ -26068,12 +26068,12 @@
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="U375">
+      <c r="V375">
         <f>T375-S375</f>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:21">
+    <row r="376" spans="1:22">
       <c r="A376">
         <v>92</v>
       </c>
@@ -26135,12 +26135,12 @@
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="U376">
+      <c r="V376">
         <f>T376-S376</f>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:21">
+    <row r="377" spans="1:22">
       <c r="A377">
         <v>92</v>
       </c>
@@ -26202,12 +26202,12 @@
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="U377">
+      <c r="V377">
         <f>T377-S377</f>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:21">
+    <row r="378" spans="1:22">
       <c r="A378">
         <v>93</v>
       </c>
@@ -26269,12 +26269,12 @@
         <f t="shared" si="7"/>
         <v>54</v>
       </c>
-      <c r="U378">
+      <c r="V378">
         <f>T378-S378</f>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:21">
+    <row r="379" spans="1:22">
       <c r="A379">
         <v>93</v>
       </c>
@@ -26336,12 +26336,12 @@
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="U379">
+      <c r="V379">
         <f>T379-S379</f>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:21">
+    <row r="380" spans="1:22">
       <c r="A380">
         <v>93</v>
       </c>
@@ -26403,12 +26403,12 @@
         <f t="shared" si="7"/>
         <v>41</v>
       </c>
-      <c r="U380">
+      <c r="V380">
         <f>T380-S380</f>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:21">
+    <row r="381" spans="1:22">
       <c r="A381">
         <v>94</v>
       </c>
@@ -26470,12 +26470,12 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="U381">
+      <c r="V381">
         <f>T381-S381</f>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:21">
+    <row r="382" spans="1:22">
       <c r="A382">
         <v>94</v>
       </c>
@@ -26537,12 +26537,12 @@
         <f t="shared" si="7"/>
         <v>47</v>
       </c>
-      <c r="U382">
+      <c r="V382">
         <f>T382-S382</f>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:21">
+    <row r="383" spans="1:22">
       <c r="A383">
         <v>94</v>
       </c>
@@ -26604,12 +26604,12 @@
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="U383">
+      <c r="V383">
         <f>T383-S383</f>
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:21">
+    <row r="384" spans="1:22">
       <c r="A384" s="24">
         <v>95</v>
       </c>
@@ -26671,12 +26671,12 @@
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="U384">
+      <c r="V384">
         <f>T384-S384</f>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:21">
+    <row r="385" spans="1:22">
       <c r="A385" s="24">
         <v>95</v>
       </c>
@@ -26738,12 +26738,12 @@
         <f t="shared" si="7"/>
         <v>44</v>
       </c>
-      <c r="U385">
+      <c r="V385">
         <f>T385-S385</f>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:21">
+    <row r="386" spans="1:22">
       <c r="A386" s="24">
         <v>95</v>
       </c>
@@ -26805,12 +26805,12 @@
         <f t="shared" si="7"/>
         <v>41</v>
       </c>
-      <c r="U386">
+      <c r="V386">
         <f>T386-S386</f>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:21">
+    <row r="387" spans="1:22">
       <c r="A387" s="24">
         <v>95</v>
       </c>
@@ -26872,12 +26872,12 @@
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="U387">
+      <c r="V387">
         <f>T387-S387</f>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:21">
+    <row r="388" spans="1:22">
       <c r="A388" s="24">
         <v>95</v>
       </c>
@@ -26939,12 +26939,12 @@
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="U388">
+      <c r="V388">
         <f>T388-S388</f>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:21">
+    <row r="389" spans="1:22">
       <c r="A389" s="24">
         <v>96</v>
       </c>
@@ -27006,12 +27006,12 @@
         <f t="shared" si="7"/>
         <v>51</v>
       </c>
-      <c r="U389">
+      <c r="V389">
         <f>T389-S389</f>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:21">
+    <row r="390" spans="1:22">
       <c r="A390" s="24">
         <v>96</v>
       </c>
@@ -27073,12 +27073,12 @@
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="U390">
+      <c r="V390">
         <f>T390-S390</f>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:21">
+    <row r="391" spans="1:22">
       <c r="A391" s="24">
         <v>96</v>
       </c>
@@ -27140,12 +27140,12 @@
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="U391">
+      <c r="V391">
         <f>T391-S391</f>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:21">
+    <row r="392" spans="1:22">
       <c r="A392" s="24">
         <v>96</v>
       </c>
@@ -27207,12 +27207,12 @@
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="U392">
+      <c r="V392">
         <f>T392-S392</f>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:21">
+    <row r="393" spans="1:22">
       <c r="A393" s="24">
         <v>96</v>
       </c>
@@ -27274,12 +27274,12 @@
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="U393">
+      <c r="V393">
         <f>T393-S393</f>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:21">
+    <row r="394" spans="1:22">
       <c r="A394" s="24">
         <v>97</v>
       </c>
@@ -27341,12 +27341,12 @@
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="U394">
+      <c r="V394">
         <f>T394-S394</f>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:21">
+    <row r="395" spans="1:22">
       <c r="A395" s="24">
         <v>97</v>
       </c>
@@ -27408,12 +27408,12 @@
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="U395">
+      <c r="V395">
         <f>T395-S395</f>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:21">
+    <row r="396" spans="1:22">
       <c r="A396" s="24">
         <v>97</v>
       </c>
@@ -27475,12 +27475,12 @@
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="U396">
+      <c r="V396">
         <f>T396-S396</f>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:21">
+    <row r="397" spans="1:22">
       <c r="A397" s="24">
         <v>97</v>
       </c>
@@ -27542,12 +27542,12 @@
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="U397">
+      <c r="V397">
         <f>T397-S397</f>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:21">
+    <row r="398" spans="1:22">
       <c r="A398" s="24">
         <v>98</v>
       </c>
@@ -27609,12 +27609,12 @@
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="U398">
+      <c r="V398">
         <f>T398-S398</f>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:21">
+    <row r="399" spans="1:22">
       <c r="A399" s="24">
         <v>98</v>
       </c>
@@ -27676,12 +27676,12 @@
         <f t="shared" si="7"/>
         <v>46</v>
       </c>
-      <c r="U399">
+      <c r="V399">
         <f>T399-S399</f>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:21">
+    <row r="400" spans="1:22">
       <c r="A400" s="24">
         <v>98</v>
       </c>
@@ -27743,12 +27743,12 @@
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="U400">
+      <c r="V400">
         <f>T400-S400</f>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:21">
+    <row r="401" spans="1:22">
       <c r="A401" s="24">
         <v>98</v>
       </c>
@@ -27810,12 +27810,12 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="U401">
+      <c r="V401">
         <f>T401-S401</f>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:21">
+    <row r="402" spans="1:22">
       <c r="A402" s="24">
         <v>99</v>
       </c>
@@ -27877,12 +27877,12 @@
         <f t="shared" ref="T402:T465" si="8">SUM(D402:R402)</f>
         <v>42</v>
       </c>
-      <c r="U402">
+      <c r="V402">
         <f>T402-S402</f>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:21">
+    <row r="403" spans="1:22">
       <c r="A403" s="24">
         <v>99</v>
       </c>
@@ -27944,12 +27944,12 @@
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="U403">
+      <c r="V403">
         <f>T403-S403</f>
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:21">
+    <row r="404" spans="1:22">
       <c r="A404" s="24">
         <v>99</v>
       </c>
@@ -28011,12 +28011,12 @@
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="U404">
+      <c r="V404">
         <f>T404-S404</f>
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:21">
+    <row r="405" spans="1:22">
       <c r="A405" s="24">
         <v>99</v>
       </c>
@@ -28078,12 +28078,12 @@
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="U405">
+      <c r="V405">
         <f>T405-S405</f>
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:21">
+    <row r="406" spans="1:22">
       <c r="A406" s="24">
         <v>100</v>
       </c>
@@ -28145,12 +28145,12 @@
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
-      <c r="U406">
+      <c r="V406">
         <f>T406-S406</f>
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:21">
+    <row r="407" spans="1:22">
       <c r="A407" s="24">
         <v>100</v>
       </c>
@@ -28212,12 +28212,12 @@
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="U407">
+      <c r="V407">
         <f>T407-S407</f>
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:21">
+    <row r="408" spans="1:22">
       <c r="A408" s="24">
         <v>100</v>
       </c>
@@ -28279,12 +28279,12 @@
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="U408">
+      <c r="V408">
         <f>T408-S408</f>
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:21">
+    <row r="409" spans="1:22">
       <c r="A409" s="24">
         <v>100</v>
       </c>
@@ -28346,12 +28346,12 @@
         <f t="shared" si="8"/>
         <v>44</v>
       </c>
-      <c r="U409">
+      <c r="V409">
         <f>T409-S409</f>
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:21">
+    <row r="410" spans="1:22">
       <c r="A410" s="24">
         <v>101</v>
       </c>
@@ -28413,12 +28413,12 @@
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="U410">
+      <c r="V410">
         <f>T410-S410</f>
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:21">
+    <row r="411" spans="1:22">
       <c r="A411" s="24">
         <v>101</v>
       </c>
@@ -28480,12 +28480,12 @@
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="U411">
+      <c r="V411">
         <f>T411-S411</f>
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:21">
+    <row r="412" spans="1:22">
       <c r="A412" s="24">
         <v>101</v>
       </c>
@@ -28547,12 +28547,12 @@
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
-      <c r="U412">
+      <c r="V412">
         <f>T412-S412</f>
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:21">
+    <row r="413" spans="1:22">
       <c r="A413" s="24">
         <v>102</v>
       </c>
@@ -28614,12 +28614,12 @@
         <f t="shared" si="8"/>
         <v>43</v>
       </c>
-      <c r="U413">
+      <c r="V413">
         <f>T413-S413</f>
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:21">
+    <row r="414" spans="1:22">
       <c r="A414" s="24">
         <v>102</v>
       </c>
@@ -28681,12 +28681,12 @@
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="U414">
+      <c r="V414">
         <f>T414-S414</f>
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:21">
+    <row r="415" spans="1:22">
       <c r="A415" s="24">
         <v>102</v>
       </c>
@@ -28748,12 +28748,12 @@
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="U415">
+      <c r="V415">
         <f>T415-S415</f>
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:21">
+    <row r="416" spans="1:22">
       <c r="A416" s="24">
         <v>102</v>
       </c>
@@ -28815,12 +28815,12 @@
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="U416">
+      <c r="V416">
         <f>T416-S416</f>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:21">
+    <row r="417" spans="1:22">
       <c r="A417" s="24">
         <v>103</v>
       </c>
@@ -28882,12 +28882,12 @@
         <f t="shared" si="8"/>
         <v>44</v>
       </c>
-      <c r="U417">
+      <c r="V417">
         <f>T417-S417</f>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:21">
+    <row r="418" spans="1:22">
       <c r="A418" s="24">
         <v>103</v>
       </c>
@@ -28949,12 +28949,12 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="U418">
+      <c r="V418">
         <f>T418-S418</f>
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:21">
+    <row r="419" spans="1:22">
       <c r="A419" s="24">
         <v>103</v>
       </c>
@@ -29016,12 +29016,12 @@
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="U419">
+      <c r="V419">
         <f>T419-S419</f>
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:21">
+    <row r="420" spans="1:22">
       <c r="A420" s="24">
         <v>103</v>
       </c>
@@ -29083,12 +29083,12 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="U420">
+      <c r="V420">
         <f>T420-S420</f>
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:21">
+    <row r="421" spans="1:22">
       <c r="A421" s="24">
         <v>104</v>
       </c>
@@ -29150,12 +29150,12 @@
         <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="U421">
+      <c r="V421">
         <f>T421-S421</f>
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:21">
+    <row r="422" spans="1:22">
       <c r="A422" s="24">
         <v>104</v>
       </c>
@@ -29217,12 +29217,12 @@
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="U422">
+      <c r="V422">
         <f>T422-S422</f>
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:21">
+    <row r="423" spans="1:22">
       <c r="A423" s="24">
         <v>104</v>
       </c>
@@ -29284,12 +29284,12 @@
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="U423">
+      <c r="V423">
         <f>T423-S423</f>
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:21">
+    <row r="424" spans="1:22">
       <c r="A424" s="24">
         <v>104</v>
       </c>
@@ -29351,12 +29351,12 @@
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="U424">
+      <c r="V424">
         <f>T424-S424</f>
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:21">
+    <row r="425" spans="1:22">
       <c r="A425" s="24">
         <v>105</v>
       </c>
@@ -29418,12 +29418,12 @@
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="U425">
+      <c r="V425">
         <f>T425-S425</f>
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:21">
+    <row r="426" spans="1:22">
       <c r="A426" s="24">
         <v>105</v>
       </c>
@@ -29485,12 +29485,12 @@
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="U426">
+      <c r="V426">
         <f>T426-S426</f>
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:21">
+    <row r="427" spans="1:22">
       <c r="A427" s="24">
         <v>105</v>
       </c>
@@ -29552,12 +29552,12 @@
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="U427">
+      <c r="V427">
         <f>T427-S427</f>
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:21">
+    <row r="428" spans="1:22">
       <c r="A428" s="24">
         <v>105</v>
       </c>
@@ -29619,12 +29619,12 @@
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="U428">
+      <c r="V428">
         <f>T428-S428</f>
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:21">
+    <row r="429" spans="1:22">
       <c r="A429" s="24">
         <v>106</v>
       </c>
@@ -29686,12 +29686,12 @@
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="U429">
+      <c r="V429">
         <f>T429-S429</f>
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:21">
+    <row r="430" spans="1:22">
       <c r="A430" s="24">
         <v>106</v>
       </c>
@@ -29753,12 +29753,12 @@
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="U430">
+      <c r="V430">
         <f>T430-S430</f>
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:21">
+    <row r="431" spans="1:22">
       <c r="A431" s="24">
         <v>106</v>
       </c>
@@ -29820,12 +29820,12 @@
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
-      <c r="U431">
+      <c r="V431">
         <f>T431-S431</f>
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:21">
+    <row r="432" spans="1:22">
       <c r="A432" s="24">
         <v>106</v>
       </c>
@@ -29887,12 +29887,12 @@
         <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="U432">
+      <c r="V432">
         <f>T432-S432</f>
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:21">
+    <row r="433" spans="1:22">
       <c r="A433" s="24">
         <v>107</v>
       </c>
@@ -29954,12 +29954,12 @@
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="U433">
+      <c r="V433">
         <f>T433-S433</f>
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:21">
+    <row r="434" spans="1:22">
       <c r="A434" s="24">
         <v>107</v>
       </c>
@@ -30021,12 +30021,12 @@
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
-      <c r="U434">
+      <c r="V434">
         <f>T434-S434</f>
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:21">
+    <row r="435" spans="1:22">
       <c r="A435" s="24">
         <v>107</v>
       </c>
@@ -30088,12 +30088,12 @@
         <f t="shared" si="8"/>
         <v>44</v>
       </c>
-      <c r="U435">
+      <c r="V435">
         <f>T435-S435</f>
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:21">
+    <row r="436" spans="1:22">
       <c r="A436" s="24">
         <v>107</v>
       </c>
@@ -30155,12 +30155,12 @@
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="U436">
+      <c r="V436">
         <f>T436-S436</f>
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:21">
+    <row r="437" spans="1:22">
       <c r="A437" s="24">
         <v>107</v>
       </c>
@@ -30222,12 +30222,12 @@
         <f t="shared" si="8"/>
         <v>44</v>
       </c>
-      <c r="U437">
+      <c r="V437">
         <f>T437-S437</f>
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:21">
+    <row r="438" spans="1:22">
       <c r="A438" s="24">
         <v>108</v>
       </c>
@@ -30289,12 +30289,12 @@
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="U438">
+      <c r="V438">
         <f>T438-S438</f>
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:21">
+    <row r="439" spans="1:22">
       <c r="A439" s="24">
         <v>108</v>
       </c>
@@ -30356,12 +30356,12 @@
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="U439">
+      <c r="V439">
         <f>T439-S439</f>
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:21">
+    <row r="440" spans="1:22">
       <c r="A440" s="24">
         <v>108</v>
       </c>
@@ -30423,12 +30423,12 @@
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
-      <c r="U440">
+      <c r="V440">
         <f>T440-S440</f>
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:21">
+    <row r="441" spans="1:22">
       <c r="A441" s="24">
         <v>108</v>
       </c>
@@ -30490,12 +30490,12 @@
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="U441">
+      <c r="V441">
         <f>T441-S441</f>
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:21">
+    <row r="442" spans="1:22">
       <c r="A442" s="24">
         <v>108</v>
       </c>
@@ -30557,12 +30557,12 @@
         <f t="shared" si="8"/>
         <v>43</v>
       </c>
-      <c r="U442">
+      <c r="V442">
         <f>T442-S442</f>
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:21">
+    <row r="443" spans="1:22">
       <c r="A443" s="24">
         <v>109</v>
       </c>
@@ -30624,12 +30624,12 @@
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
-      <c r="U443">
+      <c r="V443">
         <f>T443-S443</f>
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:21">
+    <row r="444" spans="1:22">
       <c r="A444" s="24">
         <v>109</v>
       </c>
@@ -30691,12 +30691,12 @@
         <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="U444">
+      <c r="V444">
         <f>T444-S444</f>
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:21">
+    <row r="445" spans="1:22">
       <c r="A445" s="24">
         <v>109</v>
       </c>
@@ -30758,12 +30758,12 @@
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="U445">
+      <c r="V445">
         <f>T445-S445</f>
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:21">
+    <row r="446" spans="1:22">
       <c r="A446" s="24">
         <v>109</v>
       </c>
@@ -30825,12 +30825,12 @@
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="U446">
+      <c r="V446">
         <f>T446-S446</f>
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:21">
+    <row r="447" spans="1:22">
       <c r="A447" s="24">
         <v>110</v>
       </c>
@@ -30892,12 +30892,12 @@
         <f t="shared" si="8"/>
         <v>47</v>
       </c>
-      <c r="U447">
+      <c r="V447">
         <f>T447-S447</f>
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:21">
+    <row r="448" spans="1:22">
       <c r="A448" s="24">
         <v>110</v>
       </c>
@@ -30959,12 +30959,12 @@
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="U448">
+      <c r="V448">
         <f>T448-S448</f>
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:21">
+    <row r="449" spans="1:22">
       <c r="A449" s="24">
         <v>110</v>
       </c>
@@ -31026,12 +31026,12 @@
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="U449">
+      <c r="V449">
         <f>T449-S449</f>
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:21">
+    <row r="450" spans="1:22">
       <c r="A450" s="24">
         <v>111</v>
       </c>
@@ -31093,12 +31093,12 @@
         <f t="shared" si="8"/>
         <v>43</v>
       </c>
-      <c r="U450">
+      <c r="V450">
         <f>T450-S450</f>
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:21">
+    <row r="451" spans="1:22">
       <c r="A451" s="24">
         <v>111</v>
       </c>
@@ -31160,12 +31160,12 @@
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="U451">
+      <c r="V451">
         <f>T451-S451</f>
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:21">
+    <row r="452" spans="1:22">
       <c r="A452" s="24">
         <v>111</v>
       </c>
@@ -31227,12 +31227,12 @@
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
-      <c r="U452">
+      <c r="V452">
         <f>T452-S452</f>
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:21">
+    <row r="453" spans="1:22">
       <c r="A453" s="24">
         <v>111</v>
       </c>
@@ -31294,12 +31294,12 @@
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="U453">
+      <c r="V453">
         <f>T453-S453</f>
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:21">
+    <row r="454" spans="1:22">
       <c r="A454" s="24">
         <v>111</v>
       </c>
@@ -31361,12 +31361,12 @@
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="U454">
+      <c r="V454">
         <f>T454-S454</f>
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:21">
+    <row r="455" spans="1:22">
       <c r="A455" s="24">
         <v>112</v>
       </c>
@@ -31428,12 +31428,12 @@
         <f t="shared" si="8"/>
         <v>69</v>
       </c>
-      <c r="U455">
+      <c r="V455">
         <f>T455-S455</f>
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:21">
+    <row r="456" spans="1:22">
       <c r="A456" s="24">
         <v>112</v>
       </c>
@@ -31495,12 +31495,12 @@
         <f t="shared" si="8"/>
         <v>52</v>
       </c>
-      <c r="U456">
+      <c r="V456">
         <f>T456-S456</f>
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:21">
+    <row r="457" spans="1:22">
       <c r="A457" s="24">
         <v>112</v>
       </c>
@@ -31562,12 +31562,12 @@
         <f t="shared" si="8"/>
         <v>49</v>
       </c>
-      <c r="U457">
+      <c r="V457">
         <f>T457-S457</f>
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:21">
+    <row r="458" spans="1:22">
       <c r="A458" s="24">
         <v>112</v>
       </c>
@@ -31629,12 +31629,12 @@
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="U458">
+      <c r="V458">
         <f>T458-S458</f>
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:21">
+    <row r="459" spans="1:22">
       <c r="A459" s="24">
         <v>112</v>
       </c>
@@ -31696,12 +31696,12 @@
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="U459">
+      <c r="V459">
         <f>T459-S459</f>
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:21">
+    <row r="460" spans="1:22">
       <c r="A460" s="24">
         <v>113</v>
       </c>
@@ -31763,12 +31763,12 @@
         <f t="shared" si="8"/>
         <v>43</v>
       </c>
-      <c r="U460">
+      <c r="V460">
         <f>T460-S460</f>
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:21">
+    <row r="461" spans="1:22">
       <c r="A461" s="24">
         <v>113</v>
       </c>
@@ -31830,12 +31830,12 @@
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="U461">
+      <c r="V461">
         <f>T461-S461</f>
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:21">
+    <row r="462" spans="1:22">
       <c r="A462" s="24">
         <v>113</v>
       </c>
@@ -31897,12 +31897,12 @@
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="U462">
+      <c r="V462">
         <f>T462-S462</f>
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:21">
+    <row r="463" spans="1:22">
       <c r="A463" s="24">
         <v>113</v>
       </c>
@@ -31964,12 +31964,12 @@
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="U463">
+      <c r="V463">
         <f>T463-S463</f>
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:21">
+    <row r="464" spans="1:22">
       <c r="A464" s="24">
         <v>113</v>
       </c>
@@ -32031,12 +32031,12 @@
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="U464">
+      <c r="V464">
         <f>T464-S464</f>
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:21">
+    <row r="465" spans="1:22">
       <c r="A465" s="24">
         <v>114</v>
       </c>
@@ -32098,12 +32098,12 @@
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
-      <c r="U465">
+      <c r="V465">
         <f>T465-S465</f>
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:21">
+    <row r="466" spans="1:22">
       <c r="A466" s="24">
         <v>114</v>
       </c>
@@ -32165,12 +32165,12 @@
         <f t="shared" ref="T466:T529" si="9">SUM(D466:R466)</f>
         <v>24</v>
       </c>
-      <c r="U466">
+      <c r="V466">
         <f>T466-S466</f>
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:21">
+    <row r="467" spans="1:22">
       <c r="A467" s="24">
         <v>114</v>
       </c>
@@ -32232,12 +32232,12 @@
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="U467">
+      <c r="V467">
         <f>T467-S467</f>
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:21">
+    <row r="468" spans="1:22">
       <c r="A468" s="24">
         <v>114</v>
       </c>
@@ -32299,12 +32299,12 @@
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="U468">
+      <c r="V468">
         <f>T468-S468</f>
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:21">
+    <row r="469" spans="1:22">
       <c r="A469" s="24">
         <v>115</v>
       </c>
@@ -32366,12 +32366,12 @@
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="U469">
+      <c r="V469">
         <f>T469-S469</f>
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:21">
+    <row r="470" spans="1:22">
       <c r="A470" s="24">
         <v>115</v>
       </c>
@@ -32433,12 +32433,12 @@
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="U470">
+      <c r="V470">
         <f>T470-S470</f>
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:21">
+    <row r="471" spans="1:22">
       <c r="A471" s="24">
         <v>115</v>
       </c>
@@ -32500,12 +32500,12 @@
         <f t="shared" si="9"/>
         <v>45</v>
       </c>
-      <c r="U471">
+      <c r="V471">
         <f>T471-S471</f>
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:21">
+    <row r="472" spans="1:22">
       <c r="A472" s="24">
         <v>116</v>
       </c>
@@ -32567,12 +32567,12 @@
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="U472">
+      <c r="V472">
         <f>T472-S472</f>
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:21">
+    <row r="473" spans="1:22">
       <c r="A473" s="24">
         <v>116</v>
       </c>
@@ -32634,12 +32634,12 @@
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="U473">
+      <c r="V473">
         <f>T473-S473</f>
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:21">
+    <row r="474" spans="1:22">
       <c r="A474" s="24">
         <v>116</v>
       </c>
@@ -32701,12 +32701,12 @@
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="U474">
+      <c r="V474">
         <f>T474-S474</f>
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:21">
+    <row r="475" spans="1:22">
       <c r="A475" s="24">
         <v>116</v>
       </c>
@@ -32768,12 +32768,12 @@
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="U475">
+      <c r="V475">
         <f>T475-S475</f>
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:21">
+    <row r="476" spans="1:22">
       <c r="A476" s="24">
         <v>117</v>
       </c>
@@ -32835,12 +32835,12 @@
         <f t="shared" si="9"/>
         <v>38</v>
       </c>
-      <c r="U476">
+      <c r="V476">
         <f>T476-S476</f>
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:21">
+    <row r="477" spans="1:22">
       <c r="A477" s="24">
         <v>117</v>
       </c>
@@ -32902,12 +32902,12 @@
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="U477">
+      <c r="V477">
         <f>T477-S477</f>
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:21">
+    <row r="478" spans="1:22">
       <c r="A478" s="24">
         <v>117</v>
       </c>
@@ -32969,12 +32969,12 @@
         <f t="shared" si="9"/>
         <v>51</v>
       </c>
-      <c r="U478">
+      <c r="V478">
         <f>T478-S478</f>
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:21">
+    <row r="479" spans="1:22">
       <c r="A479" s="24">
         <v>117</v>
       </c>
@@ -33036,12 +33036,12 @@
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="U479">
+      <c r="V479">
         <f>T479-S479</f>
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:21">
+    <row r="480" spans="1:22">
       <c r="A480" s="24">
         <v>118</v>
       </c>
@@ -33103,12 +33103,12 @@
         <f t="shared" si="9"/>
         <v>44</v>
       </c>
-      <c r="U480">
+      <c r="V480">
         <f>T480-S480</f>
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:21">
+    <row r="481" spans="1:22">
       <c r="A481" s="24">
         <v>118</v>
       </c>
@@ -33170,12 +33170,12 @@
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
-      <c r="U481">
+      <c r="V481">
         <f>T481-S481</f>
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:21">
+    <row r="482" spans="1:22">
       <c r="A482" s="24">
         <v>118</v>
       </c>
@@ -33237,12 +33237,12 @@
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="U482">
+      <c r="V482">
         <f>T482-S482</f>
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:21">
+    <row r="483" spans="1:22">
       <c r="A483" s="24">
         <v>118</v>
       </c>
@@ -33304,12 +33304,12 @@
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="U483">
+      <c r="V483">
         <f>T483-S483</f>
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:21">
+    <row r="484" spans="1:22">
       <c r="A484">
         <v>119</v>
       </c>
@@ -33371,12 +33371,12 @@
         <f t="shared" si="9"/>
         <v>53</v>
       </c>
-      <c r="U484">
+      <c r="V484">
         <f>T484-S484</f>
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:21">
+    <row r="485" spans="1:22">
       <c r="A485">
         <v>119</v>
       </c>
@@ -33438,12 +33438,12 @@
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="U485">
+      <c r="V485">
         <f>T485-S485</f>
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:21">
+    <row r="486" spans="1:22">
       <c r="A486">
         <v>119</v>
       </c>
@@ -33505,12 +33505,12 @@
         <f t="shared" si="9"/>
         <v>31</v>
       </c>
-      <c r="U486">
+      <c r="V486">
         <f>T486-S486</f>
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:21">
+    <row r="487" spans="1:22">
       <c r="A487">
         <v>120</v>
       </c>
@@ -33572,12 +33572,12 @@
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="U487">
+      <c r="V487">
         <f>T487-S487</f>
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:21">
+    <row r="488" spans="1:22">
       <c r="A488">
         <v>120</v>
       </c>
@@ -33639,12 +33639,12 @@
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="U488">
+      <c r="V488">
         <f>T488-S488</f>
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:21">
+    <row r="489" spans="1:22">
       <c r="A489">
         <v>120</v>
       </c>
@@ -33706,12 +33706,12 @@
         <f t="shared" si="9"/>
         <v>44</v>
       </c>
-      <c r="U489">
+      <c r="V489">
         <f>T489-S489</f>
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:21">
+    <row r="490" spans="1:22">
       <c r="A490">
         <v>121</v>
       </c>
@@ -33773,12 +33773,12 @@
         <f t="shared" si="9"/>
         <v>46</v>
       </c>
-      <c r="U490">
+      <c r="V490">
         <f>T490-S490</f>
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:21">
+    <row r="491" spans="1:22">
       <c r="A491">
         <v>121</v>
       </c>
@@ -33840,12 +33840,12 @@
         <f t="shared" si="9"/>
         <v>33</v>
       </c>
-      <c r="U491">
+      <c r="V491">
         <f>T491-S491</f>
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:21">
+    <row r="492" spans="1:22">
       <c r="A492">
         <v>121</v>
       </c>
@@ -33907,12 +33907,12 @@
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="U492">
+      <c r="V492">
         <f>T492-S492</f>
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:21">
+    <row r="493" spans="1:22">
       <c r="A493">
         <v>121</v>
       </c>
@@ -33974,12 +33974,12 @@
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
-      <c r="U493">
+      <c r="V493">
         <f>T493-S493</f>
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:21">
+    <row r="494" spans="1:22">
       <c r="A494">
         <v>122</v>
       </c>
@@ -34041,12 +34041,12 @@
         <f t="shared" si="9"/>
         <v>43</v>
       </c>
-      <c r="U494">
+      <c r="V494">
         <f>T494-S494</f>
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:21">
+    <row r="495" spans="1:22">
       <c r="A495">
         <v>122</v>
       </c>
@@ -34108,12 +34108,12 @@
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
-      <c r="U495">
+      <c r="V495">
         <f>T495-S495</f>
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:21">
+    <row r="496" spans="1:22">
       <c r="A496">
         <v>122</v>
       </c>
@@ -34175,12 +34175,12 @@
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="U496">
+      <c r="V496">
         <f>T496-S496</f>
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:21">
+    <row r="497" spans="1:22">
       <c r="A497">
         <v>122</v>
       </c>
@@ -34242,12 +34242,12 @@
         <f t="shared" si="9"/>
         <v>38</v>
       </c>
-      <c r="U497">
+      <c r="V497">
         <f>T497-S497</f>
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:21">
+    <row r="498" spans="1:22">
       <c r="A498">
         <v>123</v>
       </c>
@@ -34309,12 +34309,12 @@
         <f t="shared" si="9"/>
         <v>46</v>
       </c>
-      <c r="U498">
+      <c r="V498">
         <f>T498-S498</f>
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:21">
+    <row r="499" spans="1:22">
       <c r="A499">
         <v>123</v>
       </c>
@@ -34376,12 +34376,12 @@
         <f t="shared" si="9"/>
         <v>43</v>
       </c>
-      <c r="U499">
+      <c r="V499">
         <f>T499-S499</f>
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:21">
+    <row r="500" spans="1:22">
       <c r="A500">
         <v>123</v>
       </c>
@@ -34443,12 +34443,12 @@
         <f t="shared" si="9"/>
         <v>45</v>
       </c>
-      <c r="U500">
+      <c r="V500">
         <f>T500-S500</f>
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:21">
+    <row r="501" spans="1:22">
       <c r="A501">
         <v>123</v>
       </c>
@@ -34510,12 +34510,12 @@
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="U501">
+      <c r="V501">
         <f>T501-S501</f>
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:21">
+    <row r="502" spans="1:22">
       <c r="A502">
         <v>124</v>
       </c>
@@ -34577,12 +34577,12 @@
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
-      <c r="U502">
+      <c r="V502">
         <f>T502-S502</f>
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:21">
+    <row r="503" spans="1:22">
       <c r="A503">
         <v>124</v>
       </c>
@@ -34644,12 +34644,12 @@
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="U503">
+      <c r="V503">
         <f>T503-S503</f>
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:21">
+    <row r="504" spans="1:22">
       <c r="A504">
         <v>124</v>
       </c>
@@ -34711,12 +34711,12 @@
         <f t="shared" si="9"/>
         <v>46</v>
       </c>
-      <c r="U504">
+      <c r="V504">
         <f>T504-S504</f>
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:21">
+    <row r="505" spans="1:22">
       <c r="A505">
         <v>124</v>
       </c>
@@ -34778,12 +34778,12 @@
         <f t="shared" si="9"/>
         <v>32</v>
       </c>
-      <c r="U505">
+      <c r="V505">
         <f>T505-S505</f>
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:21">
+    <row r="506" spans="1:22">
       <c r="A506">
         <v>125</v>
       </c>
@@ -34845,12 +34845,12 @@
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="U506">
+      <c r="V506">
         <f>T506-S506</f>
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:21">
+    <row r="507" spans="1:22">
       <c r="A507">
         <v>125</v>
       </c>
@@ -34912,12 +34912,12 @@
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="U507">
+      <c r="V507">
         <f>T507-S507</f>
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:21">
+    <row r="508" spans="1:22">
       <c r="A508">
         <v>125</v>
       </c>
@@ -34979,12 +34979,12 @@
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="U508">
+      <c r="V508">
         <f>T508-S508</f>
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:21">
+    <row r="509" spans="1:22">
       <c r="A509">
         <v>125</v>
       </c>
@@ -35046,12 +35046,12 @@
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="U509">
+      <c r="V509">
         <f>T509-S509</f>
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:21">
+    <row r="510" spans="1:22">
       <c r="A510">
         <v>126</v>
       </c>
@@ -35113,12 +35113,12 @@
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
-      <c r="U510">
+      <c r="V510">
         <f>T510-S510</f>
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:21">
+    <row r="511" spans="1:22">
       <c r="A511">
         <v>126</v>
       </c>
@@ -35180,12 +35180,12 @@
         <f t="shared" si="9"/>
         <v>31</v>
       </c>
-      <c r="U511">
+      <c r="V511">
         <f>T511-S511</f>
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:21">
+    <row r="512" spans="1:22">
       <c r="A512">
         <v>126</v>
       </c>
@@ -35247,12 +35247,12 @@
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="U512">
+      <c r="V512">
         <f>T512-S512</f>
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:21">
+    <row r="513" spans="1:22">
       <c r="A513">
         <v>126</v>
       </c>
@@ -35314,12 +35314,12 @@
         <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="U513">
+      <c r="V513">
         <f>T513-S513</f>
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:21">
+    <row r="514" spans="1:22">
       <c r="A514">
         <v>127</v>
       </c>
@@ -35381,12 +35381,12 @@
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="U514">
+      <c r="V514">
         <f>T514-S514</f>
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:21">
+    <row r="515" spans="1:22">
       <c r="A515">
         <v>127</v>
       </c>
@@ -35448,12 +35448,12 @@
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="U515">
+      <c r="V515">
         <f>T515-S515</f>
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:21">
+    <row r="516" spans="1:22">
       <c r="A516">
         <v>127</v>
       </c>
@@ -35515,12 +35515,12 @@
         <f t="shared" si="9"/>
         <v>34</v>
       </c>
-      <c r="U516">
+      <c r="V516">
         <f>T516-S516</f>
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:21">
+    <row r="517" spans="1:22">
       <c r="A517">
         <v>127</v>
       </c>
@@ -35582,12 +35582,12 @@
         <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="U517">
+      <c r="V517">
         <f>T517-S517</f>
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:21">
+    <row r="518" spans="1:22">
       <c r="A518">
         <v>127</v>
       </c>
@@ -35649,12 +35649,12 @@
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="U518">
+      <c r="V518">
         <f>T518-S518</f>
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:21">
+    <row r="519" spans="1:22">
       <c r="A519">
         <v>128</v>
       </c>
@@ -35716,12 +35716,12 @@
         <f t="shared" si="9"/>
         <v>51</v>
       </c>
-      <c r="U519">
+      <c r="V519">
         <f>T519-S519</f>
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:21">
+    <row r="520" spans="1:22">
       <c r="A520">
         <v>128</v>
       </c>
@@ -35783,12 +35783,12 @@
         <f t="shared" si="9"/>
         <v>34</v>
       </c>
-      <c r="U520">
+      <c r="V520">
         <f>T520-S520</f>
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:21">
+    <row r="521" spans="1:22">
       <c r="A521">
         <v>128</v>
       </c>
@@ -35850,12 +35850,12 @@
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="U521">
+      <c r="V521">
         <f>T521-S521</f>
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:21">
+    <row r="522" spans="1:22">
       <c r="A522">
         <v>128</v>
       </c>
@@ -35917,12 +35917,12 @@
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="U522">
+      <c r="V522">
         <f>T522-S522</f>
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:21">
+    <row r="523" spans="1:22">
       <c r="A523">
         <v>129</v>
       </c>
@@ -35984,12 +35984,12 @@
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="U523">
+      <c r="V523">
         <f>T523-S523</f>
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:21">
+    <row r="524" spans="1:22">
       <c r="A524">
         <v>129</v>
       </c>
@@ -36051,12 +36051,12 @@
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="U524">
+      <c r="V524">
         <f>T524-S524</f>
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:21">
+    <row r="525" spans="1:22">
       <c r="A525">
         <v>129</v>
       </c>
@@ -36118,12 +36118,12 @@
         <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="U525">
+      <c r="V525">
         <f>T525-S525</f>
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:21">
+    <row r="526" spans="1:22">
       <c r="A526">
         <v>129</v>
       </c>
@@ -36185,12 +36185,12 @@
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="U526">
+      <c r="V526">
         <f>T526-S526</f>
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:21">
+    <row r="527" spans="1:22">
       <c r="A527">
         <v>130</v>
       </c>
@@ -36252,12 +36252,12 @@
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="U527">
+      <c r="V527">
         <f>T527-S527</f>
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:21">
+    <row r="528" spans="1:22">
       <c r="A528">
         <v>130</v>
       </c>
@@ -36319,12 +36319,12 @@
         <f t="shared" si="9"/>
         <v>44</v>
       </c>
-      <c r="U528">
+      <c r="V528">
         <f>T528-S528</f>
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:21">
+    <row r="529" spans="1:22">
       <c r="A529">
         <v>130</v>
       </c>
@@ -36386,12 +36386,12 @@
         <f t="shared" si="9"/>
         <v>45</v>
       </c>
-      <c r="U529">
+      <c r="V529">
         <f>T529-S529</f>
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:21">
+    <row r="530" spans="1:22">
       <c r="A530">
         <v>130</v>
       </c>
@@ -36450,15 +36450,15 @@
         <v>36</v>
       </c>
       <c r="T530" s="16">
-        <f t="shared" ref="T530:T593" si="10">SUM(D530:R530)</f>
+        <f t="shared" ref="T530:T580" si="10">SUM(D530:R530)</f>
         <v>36</v>
       </c>
-      <c r="U530">
+      <c r="V530">
         <f>T530-S530</f>
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:21">
+    <row r="531" spans="1:22">
       <c r="A531">
         <v>131</v>
       </c>
@@ -36520,12 +36520,12 @@
         <f t="shared" si="10"/>
         <v>56</v>
       </c>
-      <c r="U531">
+      <c r="V531">
         <f>T531-S531</f>
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:21">
+    <row r="532" spans="1:22">
       <c r="A532">
         <v>131</v>
       </c>
@@ -36587,12 +36587,12 @@
         <f t="shared" si="10"/>
         <v>46</v>
       </c>
-      <c r="U532">
+      <c r="V532">
         <f>T532-S532</f>
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:21">
+    <row r="533" spans="1:22">
       <c r="A533">
         <v>131</v>
       </c>
@@ -36654,12 +36654,12 @@
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="U533">
+      <c r="V533">
         <f>T533-S533</f>
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:21">
+    <row r="534" spans="1:22">
       <c r="A534">
         <v>131</v>
       </c>
@@ -36721,12 +36721,12 @@
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="U534">
+      <c r="V534">
         <f>T534-S534</f>
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:21">
+    <row r="535" spans="1:22">
       <c r="A535">
         <v>131</v>
       </c>
@@ -36788,12 +36788,12 @@
         <f t="shared" si="10"/>
         <v>34</v>
       </c>
-      <c r="U535">
+      <c r="V535">
         <f>T535-S535</f>
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:21">
+    <row r="536" spans="1:22">
       <c r="A536">
         <v>132</v>
       </c>
@@ -36855,12 +36855,12 @@
         <f t="shared" si="10"/>
         <v>43</v>
       </c>
-      <c r="U536">
+      <c r="V536">
         <f>T536-S536</f>
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:21">
+    <row r="537" spans="1:22">
       <c r="A537">
         <v>132</v>
       </c>
@@ -36922,12 +36922,12 @@
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
-      <c r="U537">
+      <c r="V537">
         <f>T537-S537</f>
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:21">
+    <row r="538" spans="1:22">
       <c r="A538">
         <v>132</v>
       </c>
@@ -36989,12 +36989,12 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="U538">
+      <c r="V538">
         <f>T538-S538</f>
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:21">
+    <row r="539" spans="1:22">
       <c r="A539">
         <v>132</v>
       </c>
@@ -37056,12 +37056,12 @@
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="U539">
+      <c r="V539">
         <f>T539-S539</f>
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:21">
+    <row r="540" spans="1:22">
       <c r="A540">
         <v>133</v>
       </c>
@@ -37123,12 +37123,12 @@
         <f t="shared" si="10"/>
         <v>46</v>
       </c>
-      <c r="U540">
+      <c r="V540">
         <f>T540-S540</f>
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:21">
+    <row r="541" spans="1:22">
       <c r="A541">
         <v>133</v>
       </c>
@@ -37190,12 +37190,12 @@
         <f t="shared" si="10"/>
         <v>45</v>
       </c>
-      <c r="U541">
+      <c r="V541">
         <f>T541-S541</f>
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:21">
+    <row r="542" spans="1:22">
       <c r="A542">
         <v>133</v>
       </c>
@@ -37257,12 +37257,12 @@
         <f t="shared" si="10"/>
         <v>45</v>
       </c>
-      <c r="U542">
+      <c r="V542">
         <f>T542-S542</f>
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:21">
+    <row r="543" spans="1:22">
       <c r="A543">
         <v>133</v>
       </c>
@@ -37324,12 +37324,12 @@
         <f t="shared" si="10"/>
         <v>27</v>
       </c>
-      <c r="U543">
+      <c r="V543">
         <f>T543-S543</f>
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:21">
+    <row r="544" spans="1:22">
       <c r="A544">
         <v>134</v>
       </c>
@@ -37391,12 +37391,12 @@
         <f t="shared" si="10"/>
         <v>63</v>
       </c>
-      <c r="U544">
+      <c r="V544">
         <f>T544-S544</f>
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:21">
+    <row r="545" spans="1:22">
       <c r="A545">
         <v>134</v>
       </c>
@@ -37458,12 +37458,12 @@
         <f t="shared" si="10"/>
         <v>47</v>
       </c>
-      <c r="U545">
+      <c r="V545">
         <f>T545-S545</f>
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:21">
+    <row r="546" spans="1:22">
       <c r="A546">
         <v>135</v>
       </c>
@@ -37525,12 +37525,12 @@
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="U546">
+      <c r="V546">
         <f>T546-S546</f>
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:21">
+    <row r="547" spans="1:22">
       <c r="A547">
         <v>135</v>
       </c>
@@ -37592,12 +37592,12 @@
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="U547">
+      <c r="V547">
         <f>T547-S547</f>
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:21">
+    <row r="548" spans="1:22">
       <c r="A548">
         <v>135</v>
       </c>
@@ -37659,12 +37659,12 @@
         <f t="shared" si="10"/>
         <v>47</v>
       </c>
-      <c r="U548">
+      <c r="V548">
         <f>T548-S548</f>
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:21">
+    <row r="549" spans="1:22">
       <c r="A549">
         <v>135</v>
       </c>
@@ -37726,12 +37726,12 @@
         <f t="shared" si="10"/>
         <v>41</v>
       </c>
-      <c r="U549">
+      <c r="V549">
         <f>T549-S549</f>
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:21">
+    <row r="550" spans="1:22">
       <c r="A550">
         <v>135</v>
       </c>
@@ -37793,12 +37793,12 @@
         <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="U550">
+      <c r="V550">
         <f>T550-S550</f>
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:21">
+    <row r="551" spans="1:22">
       <c r="A551">
         <v>136</v>
       </c>
@@ -37860,12 +37860,12 @@
         <f t="shared" si="10"/>
         <v>33</v>
       </c>
-      <c r="U551">
+      <c r="V551">
         <f>T551-S551</f>
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:21">
+    <row r="552" spans="1:22">
       <c r="A552">
         <v>136</v>
       </c>
@@ -37927,12 +37927,12 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="U552">
+      <c r="V552">
         <f>T552-S552</f>
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:21">
+    <row r="553" spans="1:22">
       <c r="A553">
         <v>136</v>
       </c>
@@ -37994,12 +37994,12 @@
         <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="U553">
+      <c r="V553">
         <f>T553-S553</f>
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:21">
+    <row r="554" spans="1:22">
       <c r="A554">
         <v>136</v>
       </c>
@@ -38061,12 +38061,12 @@
         <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="U554">
+      <c r="V554">
         <f>T554-S554</f>
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:21">
+    <row r="555" spans="1:22">
       <c r="A555">
         <v>137</v>
       </c>
@@ -38128,12 +38128,12 @@
         <f t="shared" si="10"/>
         <v>51</v>
       </c>
-      <c r="U555">
+      <c r="V555">
         <f>T555-S555</f>
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:21">
+    <row r="556" spans="1:22">
       <c r="A556">
         <v>137</v>
       </c>
@@ -38195,12 +38195,12 @@
         <f t="shared" si="10"/>
         <v>51</v>
       </c>
-      <c r="U556">
+      <c r="V556">
         <f>T556-S556</f>
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:21">
+    <row r="557" spans="1:22">
       <c r="A557">
         <v>137</v>
       </c>
@@ -38262,12 +38262,12 @@
         <f t="shared" si="10"/>
         <v>57</v>
       </c>
-      <c r="U557">
+      <c r="V557">
         <f>T557-S557</f>
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:21">
+    <row r="558" spans="1:22">
       <c r="A558">
         <v>137</v>
       </c>
@@ -38329,12 +38329,12 @@
         <f t="shared" si="10"/>
         <v>29</v>
       </c>
-      <c r="U558">
+      <c r="V558">
         <f>T558-S558</f>
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:21">
+    <row r="559" spans="1:22">
       <c r="A559">
         <v>138</v>
       </c>
@@ -38396,12 +38396,12 @@
         <f t="shared" si="10"/>
         <v>39</v>
       </c>
-      <c r="U559">
+      <c r="V559">
         <f>T559-S559</f>
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:21">
+    <row r="560" spans="1:22">
       <c r="A560">
         <v>138</v>
       </c>
@@ -38463,12 +38463,12 @@
         <f t="shared" si="10"/>
         <v>53</v>
       </c>
-      <c r="U560">
+      <c r="V560">
         <f>T560-S560</f>
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:21">
+    <row r="561" spans="1:22">
       <c r="A561">
         <v>138</v>
       </c>
@@ -38530,12 +38530,12 @@
         <f t="shared" si="10"/>
         <v>44</v>
       </c>
-      <c r="U561">
+      <c r="V561">
         <f>T561-S561</f>
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:21">
+    <row r="562" spans="1:22">
       <c r="A562">
         <v>138</v>
       </c>
@@ -38597,12 +38597,12 @@
         <f t="shared" si="10"/>
         <v>29</v>
       </c>
-      <c r="U562">
+      <c r="V562">
         <f>T562-S562</f>
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:21">
+    <row r="563" spans="1:22">
       <c r="A563">
         <v>139</v>
       </c>
@@ -38664,12 +38664,12 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="U563">
+      <c r="V563">
         <f>T563-S563</f>
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:21">
+    <row r="564" spans="1:22">
       <c r="A564">
         <v>139</v>
       </c>
@@ -38731,12 +38731,12 @@
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="U564">
+      <c r="V564">
         <f>T564-S564</f>
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:21">
+    <row r="565" spans="1:22">
       <c r="A565">
         <v>139</v>
       </c>
@@ -38798,12 +38798,12 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="U565">
+      <c r="V565">
         <f>T565-S565</f>
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:21">
+    <row r="566" spans="1:22">
       <c r="A566">
         <v>139</v>
       </c>
@@ -38865,12 +38865,12 @@
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="U566">
+      <c r="V566">
         <f>T566-S566</f>
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:21">
+    <row r="567" spans="1:22">
       <c r="A567">
         <v>140</v>
       </c>
@@ -38932,12 +38932,12 @@
         <f t="shared" si="10"/>
         <v>43</v>
       </c>
-      <c r="U567">
+      <c r="V567">
         <f>T567-S567</f>
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:21">
+    <row r="568" spans="1:22">
       <c r="A568">
         <v>140</v>
       </c>
@@ -38999,12 +38999,12 @@
         <f t="shared" si="10"/>
         <v>45</v>
       </c>
-      <c r="U568">
+      <c r="V568">
         <f>T568-S568</f>
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:21">
+    <row r="569" spans="1:22">
       <c r="A569">
         <v>140</v>
       </c>
@@ -39066,12 +39066,12 @@
         <f t="shared" si="10"/>
         <v>38</v>
       </c>
-      <c r="U569">
+      <c r="V569">
         <f>T569-S569</f>
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:21">
+    <row r="570" spans="1:22">
       <c r="A570">
         <v>140</v>
       </c>
@@ -39133,12 +39133,12 @@
         <f t="shared" si="10"/>
         <v>27</v>
       </c>
-      <c r="U570">
+      <c r="V570">
         <f>T570-S570</f>
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:21">
+    <row r="571" spans="1:22">
       <c r="A571">
         <v>141</v>
       </c>
@@ -39200,12 +39200,12 @@
         <f t="shared" si="10"/>
         <v>53</v>
       </c>
-      <c r="U571">
+      <c r="V571">
         <f>T571-S571</f>
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:21">
+    <row r="572" spans="1:22">
       <c r="A572">
         <v>141</v>
       </c>
@@ -39267,12 +39267,12 @@
         <f t="shared" si="10"/>
         <v>57</v>
       </c>
-      <c r="U572">
+      <c r="V572">
         <f>T572-S572</f>
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:21">
+    <row r="573" spans="1:22">
       <c r="A573">
         <v>141</v>
       </c>
@@ -39334,12 +39334,12 @@
         <f t="shared" si="10"/>
         <v>33</v>
       </c>
-      <c r="U573">
+      <c r="V573">
         <f>T573-S573</f>
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:21">
+    <row r="574" spans="1:22">
       <c r="A574">
         <v>141</v>
       </c>
@@ -39401,12 +39401,12 @@
         <f t="shared" si="10"/>
         <v>41</v>
       </c>
-      <c r="U574">
+      <c r="V574">
         <f>T574-S574</f>
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:21">
+    <row r="575" spans="1:22">
       <c r="A575">
         <v>141</v>
       </c>
@@ -39468,12 +39468,12 @@
         <f t="shared" si="10"/>
         <v>33</v>
       </c>
-      <c r="U575">
+      <c r="V575">
         <f>T575-S575</f>
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:21">
+    <row r="576" spans="1:22">
       <c r="A576">
         <v>142</v>
       </c>
@@ -39535,12 +39535,12 @@
         <f t="shared" si="10"/>
         <v>29</v>
       </c>
-      <c r="U576">
+      <c r="V576">
         <f>T576-S576</f>
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:21">
+    <row r="577" spans="1:22">
       <c r="A577">
         <v>142</v>
       </c>
@@ -39599,12 +39599,12 @@
         <f t="shared" si="10"/>
         <v>34</v>
       </c>
-      <c r="U577">
+      <c r="V577">
         <f>T577-S577</f>
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:21">
+    <row r="578" spans="1:22">
       <c r="A578">
         <v>142</v>
       </c>
@@ -39666,12 +39666,12 @@
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="U578">
+      <c r="V578">
         <f>T578-S578</f>
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:21">
+    <row r="579" spans="1:22">
       <c r="A579">
         <v>142</v>
       </c>
@@ -39733,12 +39733,12 @@
         <f t="shared" si="10"/>
         <v>41</v>
       </c>
-      <c r="U579">
+      <c r="V579">
         <f>T579-S579</f>
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:21">
+    <row r="580" spans="1:22">
       <c r="A580">
         <v>142</v>
       </c>
@@ -39800,12 +39800,12 @@
         <f t="shared" si="10"/>
         <v>42</v>
       </c>
-      <c r="U580">
+      <c r="V580">
         <f>T580-S580</f>
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:21">
+    <row r="581" spans="1:22">
       <c r="A581" s="24">
         <v>143</v>
       </c>
@@ -39867,12 +39867,12 @@
         <f t="shared" ref="T581:T604" si="11">SUM(D581:R581)</f>
         <v>36</v>
       </c>
-      <c r="U581">
+      <c r="V581">
         <f>T581-S581</f>
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:21">
+    <row r="582" spans="1:22">
       <c r="A582" s="24">
         <v>143</v>
       </c>
@@ -39934,12 +39934,12 @@
         <f t="shared" si="11"/>
         <v>39</v>
       </c>
-      <c r="U582">
+      <c r="V582">
         <f>T582-S582</f>
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:21">
+    <row r="583" spans="1:22">
       <c r="A583" s="24">
         <v>143</v>
       </c>
@@ -40001,12 +40001,12 @@
         <f t="shared" si="11"/>
         <v>48</v>
       </c>
-      <c r="U583">
+      <c r="V583">
         <f>T583-S583</f>
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:21">
+    <row r="584" spans="1:22">
       <c r="A584" s="24">
         <v>143</v>
       </c>
@@ -40068,12 +40068,12 @@
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
-      <c r="U584">
+      <c r="V584">
         <f>T584-S584</f>
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:21">
+    <row r="585" spans="1:22">
       <c r="A585" s="24">
         <v>144</v>
       </c>
@@ -40135,12 +40135,12 @@
         <f t="shared" si="11"/>
         <v>44</v>
       </c>
-      <c r="U585">
+      <c r="V585">
         <f>T585-S585</f>
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:21">
+    <row r="586" spans="1:22">
       <c r="A586" s="24">
         <v>144</v>
       </c>
@@ -40202,12 +40202,12 @@
         <f t="shared" si="11"/>
         <v>41</v>
       </c>
-      <c r="U586">
+      <c r="V586">
         <f>T586-S586</f>
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:21">
+    <row r="587" spans="1:22">
       <c r="A587" s="24">
         <v>144</v>
       </c>
@@ -40269,12 +40269,12 @@
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="U587">
+      <c r="V587">
         <f>T587-S587</f>
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:21">
+    <row r="588" spans="1:22">
       <c r="A588" s="24">
         <v>144</v>
       </c>
@@ -40336,12 +40336,12 @@
         <f t="shared" si="11"/>
         <v>29</v>
       </c>
-      <c r="U588">
+      <c r="V588">
         <f>T588-S588</f>
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:21">
+    <row r="589" spans="1:22">
       <c r="A589" s="24">
         <v>145</v>
       </c>
@@ -40403,12 +40403,12 @@
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
-      <c r="U589">
+      <c r="V589">
         <f>T589-S589</f>
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:21">
+    <row r="590" spans="1:22">
       <c r="A590" s="24">
         <v>145</v>
       </c>
@@ -40470,12 +40470,12 @@
         <f t="shared" si="11"/>
         <v>34</v>
       </c>
-      <c r="U590">
+      <c r="V590">
         <f>T590-S590</f>
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:21">
+    <row r="591" spans="1:22">
       <c r="A591" s="24">
         <v>145</v>
       </c>
@@ -40537,12 +40537,12 @@
         <f t="shared" si="11"/>
         <v>44</v>
       </c>
-      <c r="U591">
+      <c r="V591">
         <f>T591-S591</f>
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:21">
+    <row r="592" spans="1:22">
       <c r="A592" s="24">
         <v>145</v>
       </c>
@@ -40604,12 +40604,12 @@
         <f t="shared" si="11"/>
         <v>39</v>
       </c>
-      <c r="U592">
+      <c r="V592">
         <f>T592-S592</f>
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:21">
+    <row r="593" spans="1:22">
       <c r="A593" s="24">
         <v>146</v>
       </c>
@@ -40671,12 +40671,12 @@
         <f t="shared" si="11"/>
         <v>47</v>
       </c>
-      <c r="U593">
+      <c r="V593">
         <f>T593-S593</f>
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:21">
+    <row r="594" spans="1:22">
       <c r="A594" s="24">
         <v>146</v>
       </c>
@@ -40738,12 +40738,12 @@
         <f t="shared" si="11"/>
         <v>51</v>
       </c>
-      <c r="U594">
+      <c r="V594">
         <f>T594-S594</f>
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:21">
+    <row r="595" spans="1:22">
       <c r="A595" s="24">
         <v>146</v>
       </c>
@@ -40805,12 +40805,12 @@
         <f t="shared" si="11"/>
         <v>46</v>
       </c>
-      <c r="U595">
+      <c r="V595">
         <f>T595-S595</f>
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:21">
+    <row r="596" spans="1:22">
       <c r="A596" s="24">
         <v>146</v>
       </c>
@@ -40872,12 +40872,12 @@
         <f t="shared" si="11"/>
         <v>36</v>
       </c>
-      <c r="U596">
+      <c r="V596">
         <f>T596-S596</f>
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:21">
+    <row r="597" spans="1:22">
       <c r="A597" s="24">
         <v>147</v>
       </c>
@@ -40939,12 +40939,12 @@
         <f t="shared" si="11"/>
         <v>40</v>
       </c>
-      <c r="U597">
+      <c r="V597">
         <f>T597-S597</f>
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:21">
+    <row r="598" spans="1:22">
       <c r="A598" s="24">
         <v>147</v>
       </c>
@@ -41006,12 +41006,12 @@
         <f t="shared" si="11"/>
         <v>42</v>
       </c>
-      <c r="U598">
+      <c r="V598">
         <f>T598-S598</f>
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:21">
+    <row r="599" spans="1:22">
       <c r="A599" s="24">
         <v>147</v>
       </c>
@@ -41073,12 +41073,12 @@
         <f t="shared" si="11"/>
         <v>45</v>
       </c>
-      <c r="U599">
+      <c r="V599">
         <f>T599-S599</f>
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:21">
+    <row r="600" spans="1:22">
       <c r="A600" s="24">
         <v>147</v>
       </c>
@@ -41140,12 +41140,12 @@
         <f t="shared" si="11"/>
         <v>40</v>
       </c>
-      <c r="U600">
+      <c r="V600">
         <f>T600-S600</f>
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:21">
+    <row r="601" spans="1:22">
       <c r="A601" s="24">
         <v>148</v>
       </c>
@@ -41207,12 +41207,12 @@
         <f t="shared" si="11"/>
         <v>45</v>
       </c>
-      <c r="U601">
+      <c r="V601">
         <f>T601-S601</f>
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:21">
+    <row r="602" spans="1:22">
       <c r="A602" s="24">
         <v>148</v>
       </c>
@@ -41274,12 +41274,12 @@
         <f t="shared" si="11"/>
         <v>45</v>
       </c>
-      <c r="U602">
+      <c r="V602">
         <f>T602-S602</f>
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:21">
+    <row r="603" spans="1:22">
       <c r="A603" s="24">
         <v>148</v>
       </c>
@@ -41341,12 +41341,12 @@
         <f t="shared" si="11"/>
         <v>36</v>
       </c>
-      <c r="U603">
+      <c r="V603">
         <f>T603-S603</f>
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:21">
+    <row r="604" spans="1:22">
       <c r="A604" s="24">
         <v>148</v>
       </c>
@@ -41408,12 +41408,12 @@
         <f t="shared" si="11"/>
         <v>43</v>
       </c>
-      <c r="U604">
+      <c r="V604">
         <f>T604-S604</f>
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:21">
+    <row r="605" spans="1:22">
       <c r="A605" s="24">
         <v>149</v>
       </c>
@@ -41472,15 +41472,15 @@
         <v>48</v>
       </c>
       <c r="T605" s="16">
-        <f>SUM(D605:R605)</f>
+        <f t="shared" ref="T605:T617" si="12">SUM(D605:R605)</f>
         <v>48</v>
       </c>
-      <c r="U605">
+      <c r="V605">
         <f>T605-S605</f>
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:21">
+    <row r="606" spans="1:22">
       <c r="A606" s="24">
         <v>149</v>
       </c>
@@ -41539,15 +41539,15 @@
         <v>48</v>
       </c>
       <c r="T606" s="16">
-        <f>SUM(D606:R606)</f>
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="U606">
+      <c r="V606">
         <f>T606-S606</f>
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:21">
+    <row r="607" spans="1:22">
       <c r="A607" s="24">
         <v>149</v>
       </c>
@@ -41606,15 +41606,15 @@
         <v>35</v>
       </c>
       <c r="T607" s="16">
-        <f>SUM(D607:R607)</f>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
-      <c r="U607">
+      <c r="V607">
         <f>T607-S607</f>
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:21">
+    <row r="608" spans="1:22">
       <c r="A608" s="24">
         <v>149</v>
       </c>
@@ -41673,15 +41673,15 @@
         <v>40</v>
       </c>
       <c r="T608" s="16">
-        <f>SUM(D608:R608)</f>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
-      <c r="U608">
+      <c r="V608">
         <f>T608-S608</f>
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:21">
+    <row r="609" spans="1:22">
       <c r="A609" s="24">
         <v>150</v>
       </c>
@@ -41740,15 +41740,15 @@
         <v>49</v>
       </c>
       <c r="T609" s="16">
-        <f>SUM(D609:R609)</f>
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
-      <c r="U609">
+      <c r="V609">
         <f>T609-S609</f>
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:21">
+    <row r="610" spans="1:22">
       <c r="A610" s="24">
         <v>150</v>
       </c>
@@ -41807,15 +41807,15 @@
         <v>47</v>
       </c>
       <c r="T610" s="16">
-        <f>SUM(D610:R610)</f>
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
-      <c r="U610">
+      <c r="V610">
         <f>T610-S610</f>
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:21">
+    <row r="611" spans="1:22">
       <c r="A611" s="24">
         <v>150</v>
       </c>
@@ -41874,15 +41874,15 @@
         <v>48</v>
       </c>
       <c r="T611" s="16">
-        <f>SUM(D611:R611)</f>
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="U611">
+      <c r="V611">
         <f>T611-S611</f>
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:21">
+    <row r="612" spans="1:22">
       <c r="A612" s="24">
         <v>150</v>
       </c>
@@ -41941,15 +41941,15 @@
         <v>33</v>
       </c>
       <c r="T612" s="16">
-        <f>SUM(D612:R612)</f>
+        <f t="shared" si="12"/>
         <v>33</v>
       </c>
-      <c r="U612">
+      <c r="V612">
         <f>T612-S612</f>
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:21">
+    <row r="613" spans="1:22">
       <c r="A613" s="26">
         <v>151</v>
       </c>
@@ -42008,15 +42008,15 @@
         <v>38</v>
       </c>
       <c r="T613" s="16">
-        <f>SUM(D613:R613)</f>
+        <f t="shared" si="12"/>
         <v>38</v>
       </c>
-      <c r="U613">
+      <c r="V613">
         <f>T613-S613</f>
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:21">
+    <row r="614" spans="1:22">
       <c r="A614" s="26">
         <v>151</v>
       </c>
@@ -42075,15 +42075,15 @@
         <v>31</v>
       </c>
       <c r="T614" s="16">
-        <f>SUM(D614:R614)</f>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
-      <c r="U614">
+      <c r="V614">
         <f>T614-S614</f>
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:21">
+    <row r="615" spans="1:22">
       <c r="A615" s="26">
         <v>151</v>
       </c>
@@ -42142,15 +42142,15 @@
         <v>42</v>
       </c>
       <c r="T615" s="16">
-        <f>SUM(D615:R615)</f>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
-      <c r="U615">
+      <c r="V615">
         <f>T615-S615</f>
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:21">
+    <row r="616" spans="1:22">
       <c r="A616" s="26">
         <v>151</v>
       </c>
@@ -42209,15 +42209,15 @@
         <v>36</v>
       </c>
       <c r="T616" s="16">
-        <f>SUM(D616:R616)</f>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
-      <c r="U616">
+      <c r="V616">
         <f>T616-S616</f>
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:21">
+    <row r="617" spans="1:22">
       <c r="A617">
         <v>152</v>
       </c>
@@ -42276,15 +42276,15 @@
         <v>37</v>
       </c>
       <c r="T617" s="16">
-        <f>SUM(D617:R617)</f>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
-      <c r="U617">
+      <c r="V617">
         <f>T617-S617</f>
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:21">
+    <row r="618" spans="1:22">
       <c r="A618">
         <v>152</v>
       </c>
@@ -42343,15 +42343,15 @@
         <v>39</v>
       </c>
       <c r="T618" s="16">
-        <f t="shared" ref="T618:T636" si="12">SUM(D618:R618)</f>
+        <f t="shared" ref="T618:T636" si="13">SUM(D618:R618)</f>
         <v>39</v>
       </c>
-      <c r="U618">
+      <c r="V618">
         <f>T618-S618</f>
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:21">
+    <row r="619" spans="1:22">
       <c r="A619">
         <v>152</v>
       </c>
@@ -42410,15 +42410,15 @@
         <v>38</v>
       </c>
       <c r="T619" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
-      <c r="U619">
+      <c r="V619">
         <f>T619-S619</f>
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:21">
+    <row r="620" spans="1:22">
       <c r="A620">
         <v>152</v>
       </c>
@@ -42477,15 +42477,15 @@
         <v>37</v>
       </c>
       <c r="T620" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
-      <c r="U620">
+      <c r="V620">
         <f>T620-S620</f>
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:21">
+    <row r="621" spans="1:22">
       <c r="A621">
         <v>153</v>
       </c>
@@ -42544,15 +42544,15 @@
         <v>52</v>
       </c>
       <c r="T621" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>52</v>
       </c>
-      <c r="U621">
+      <c r="V621">
         <f>T621-S621</f>
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:21">
+    <row r="622" spans="1:22">
       <c r="A622">
         <v>153</v>
       </c>
@@ -42611,15 +42611,15 @@
         <v>39</v>
       </c>
       <c r="T622" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
-      <c r="U622">
+      <c r="V622">
         <f>T622-S622</f>
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:21">
+    <row r="623" spans="1:22">
       <c r="A623">
         <v>153</v>
       </c>
@@ -42678,15 +42678,15 @@
         <v>45</v>
       </c>
       <c r="T623" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
-      <c r="U623">
+      <c r="V623">
         <f>T623-S623</f>
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:21">
+    <row r="624" spans="1:22">
       <c r="A624">
         <v>153</v>
       </c>
@@ -42745,15 +42745,15 @@
         <v>47</v>
       </c>
       <c r="T624" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>47</v>
       </c>
-      <c r="U624">
+      <c r="V624">
         <f>T624-S624</f>
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:21">
+    <row r="625" spans="1:22">
       <c r="A625">
         <v>154</v>
       </c>
@@ -42812,15 +42812,15 @@
         <v>41</v>
       </c>
       <c r="T625" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
-      <c r="U625">
+      <c r="V625">
         <f>T625-S625</f>
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:21">
+    <row r="626" spans="1:22">
       <c r="A626">
         <v>154</v>
       </c>
@@ -42879,15 +42879,15 @@
         <v>44</v>
       </c>
       <c r="T626" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
-      <c r="U626">
+      <c r="V626">
         <f>T626-S626</f>
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:21">
+    <row r="627" spans="1:22">
       <c r="A627">
         <v>154</v>
       </c>
@@ -42946,15 +42946,15 @@
         <v>45</v>
       </c>
       <c r="T627" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
-      <c r="U627">
+      <c r="V627">
         <f>T627-S627</f>
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:21">
+    <row r="628" spans="1:22">
       <c r="A628">
         <v>154</v>
       </c>
@@ -43013,15 +43013,15 @@
         <v>39</v>
       </c>
       <c r="T628" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
-      <c r="U628">
+      <c r="V628">
         <f>T628-S628</f>
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:21">
+    <row r="629" spans="1:22">
       <c r="A629">
         <v>155</v>
       </c>
@@ -43080,15 +43080,15 @@
         <v>46</v>
       </c>
       <c r="T629" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>46</v>
       </c>
-      <c r="U629">
+      <c r="V629">
         <f>T629-S629</f>
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:21">
+    <row r="630" spans="1:22">
       <c r="A630">
         <v>155</v>
       </c>
@@ -43147,15 +43147,15 @@
         <v>30</v>
       </c>
       <c r="T630" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
-      <c r="U630">
+      <c r="V630">
         <f>T630-S630</f>
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:21">
+    <row r="631" spans="1:22">
       <c r="A631">
         <v>155</v>
       </c>
@@ -43214,15 +43214,15 @@
         <v>47</v>
       </c>
       <c r="T631" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>47</v>
       </c>
-      <c r="U631">
+      <c r="V631">
         <f>T631-S631</f>
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:21">
+    <row r="632" spans="1:22">
       <c r="A632">
         <v>155</v>
       </c>
@@ -43281,15 +43281,15 @@
         <v>38</v>
       </c>
       <c r="T632" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
-      <c r="U632">
+      <c r="V632">
         <f>T632-S632</f>
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:21">
+    <row r="633" spans="1:22">
       <c r="A633">
         <v>156</v>
       </c>
@@ -43348,15 +43348,15 @@
         <v>57</v>
       </c>
       <c r="T633" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>57</v>
       </c>
-      <c r="U633">
+      <c r="V633">
         <f>T633-S633</f>
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:21">
+    <row r="634" spans="1:22">
       <c r="A634">
         <v>156</v>
       </c>
@@ -43415,15 +43415,15 @@
         <v>40</v>
       </c>
       <c r="T634" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="U634">
+      <c r="V634">
         <f>T634-S634</f>
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:21">
+    <row r="635" spans="1:22">
       <c r="A635">
         <v>156</v>
       </c>
@@ -43482,15 +43482,15 @@
         <v>42</v>
       </c>
       <c r="T635" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
-      <c r="U635">
+      <c r="V635">
         <f>T635-S635</f>
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:21">
+    <row r="636" spans="1:22">
       <c r="A636">
         <v>156</v>
       </c>
@@ -43549,18 +43549,18 @@
         <v>39</v>
       </c>
       <c r="T636" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
-      <c r="U636">
+      <c r="V636">
         <f>T636-S636</f>
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:21">
+    <row r="639" spans="1:22">
       <c r="U639" s="1"/>
     </row>
-    <row r="640" spans="1:21">
+    <row r="640" spans="1:22">
       <c r="U640" s="1"/>
     </row>
     <row r="641" spans="21:21">
@@ -61608,8 +61608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S636"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S636"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>

--- a/Agricola Stats.xlsx.xlsx
+++ b/Agricola Stats.xlsx.xlsx
@@ -732,10 +732,10 @@
   <dimension ref="A1:V1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D619" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D520" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A637" sqref="A637"/>
+      <selection pane="bottomRight" activeCell="A546" sqref="A546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -37465,7 +37465,7 @@
     </row>
     <row r="546" spans="1:22">
       <c r="A546">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B546">
         <v>3</v>
